--- a/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter3/dataConvertTools.xlsx
+++ b/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter3/dataConvertTools.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\bin\Debug\addins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\CodeLibrary\CodeGenerator\addinCodeConverter3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806C6CF2-2C2C-4040-8717-510DD5DFB1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C1EEE1-3B82-4808-A7D1-021653ACBF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,6 @@
     <t>TOKEN</t>
   </si>
   <si>
-    <t>JWT仕組みで作成したトークンを格納する</t>
-  </si>
-  <si>
     <t>varchar2</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>EXTERNAL_FUNC_URL</t>
   </si>
   <si>
-    <t>トークン作成時に機能のリダイレクトURL</t>
-  </si>
-  <si>
     <t>(N)(0,60)</t>
   </si>
   <si>
@@ -194,9 +188,6 @@
   </si>
   <si>
     <t>EXTERNAL_FUNC_AUTH_STR</t>
-  </si>
-  <si>
-    <t>トークン作成時に機能の認可認証用文字列</t>
   </si>
   <si>
     <t>(Y)(0,256)</t>
@@ -294,55 +285,6 @@
   </si>
   <si>
     <t>C:\wbc_sam\workspace</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>使用者的项目地址，通常放到个人的</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>git</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>目录，无需修改</t>
-    </r>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -590,6 +532,78 @@
     </r>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用者的项目地址，通常放到个人的</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目录，无需修改</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>JWT仕組み</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>機能のリダイレクト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>機能の認可認証用文字列</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -664,23 +678,6 @@
     </font>
     <font>
       <i/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -693,6 +690,18 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.25"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.25"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -739,7 +748,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -972,81 +981,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1112,36 +1052,36 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1425,7 +1365,7 @@
   <dimension ref="A1:CW195"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -1435,9 +1375,9 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="2.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="11" width="22.7109375" customWidth="1"/>
     <col min="12" max="12" width="22.140625" customWidth="1"/>
     <col min="13" max="13" width="22" customWidth="1"/>
@@ -1451,12 +1391,12 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="66" t="s">
-        <v>90</v>
+      <c r="D1" s="56" t="s">
+        <v>91</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1553,24 +1493,24 @@
     </row>
     <row r="2" spans="1:100" s="44" customFormat="1" ht="21">
       <c r="C2" s="45" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E2" s="47"/>
     </row>
-    <row r="3" spans="1:100" ht="20.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:100" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="66" t="s">
-        <v>88</v>
+      <c r="D3" s="56" t="s">
+        <v>85</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="1"/>
@@ -1587,17 +1527,17 @@
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="56"/>
-      <c r="L4" s="67" t="s">
-        <v>91</v>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="58"/>
+      <c r="L4" s="57" t="s">
+        <v>87</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
     </row>
     <row r="5" spans="1:100" ht="18.75" customHeight="1">
       <c r="B5" s="4"/>
@@ -1608,16 +1548,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="59"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -1712,16 +1652,16 @@
         <v>6</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="59"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1816,16 +1756,16 @@
         <v>8</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1920,16 +1860,16 @@
         <v>10</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="59"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2024,16 +1964,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2129,9 +2069,9 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="60"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="59"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2223,19 +2163,19 @@
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
     </row>
-    <row r="11" spans="1:100" ht="18.75" customHeight="1" thickBot="1">
+    <row r="11" spans="1:100" ht="18.75" customHeight="1">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -2639,24 +2579,24 @@
     <row r="15" spans="1:100" ht="20.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="68" t="s">
-        <v>92</v>
+      <c r="C15" s="55" t="s">
+        <v>88</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="68" t="s">
-        <v>93</v>
+      <c r="L15" s="55" t="s">
+        <v>89</v>
       </c>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2754,11 +2694,11 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3159,18 +3099,18 @@
     <row r="20" spans="1:100" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="25"/>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="69" t="s">
-        <v>94</v>
+      <c r="E20" s="54" t="s">
+        <v>90</v>
       </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="13"/>
@@ -3617,22 +3557,22 @@
         <v>39</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="K24" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="K24" s="17" t="s">
-        <v>45</v>
       </c>
       <c r="L24" s="35" t="s">
         <v>38</v>
@@ -3736,23 +3676,23 @@
       <c r="C25" s="27"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="K25" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>38</v>
@@ -3858,25 +3798,25 @@
       <c r="C26" s="27"/>
       <c r="D26" s="18"/>
       <c r="E26" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="K26" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>56</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>38</v>
@@ -3976,25 +3916,25 @@
       <c r="C27" s="27"/>
       <c r="D27" s="32"/>
       <c r="E27" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="J27" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="14" t="s">
-        <v>61</v>
-      </c>
       <c r="K27" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>38</v>
@@ -4094,25 +4034,25 @@
       <c r="C28" s="29"/>
       <c r="D28" s="34"/>
       <c r="E28" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="35" t="s">
+      <c r="I28" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="35" t="s">
+      <c r="J28" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>67</v>
-      </c>
       <c r="K28" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L28" s="35" t="s">
         <v>38</v>
@@ -4212,22 +4152,22 @@
       <c r="C29" s="39"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="I29" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="J29" s="35" t="s">
         <v>70</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>73</v>
       </c>
       <c r="K29" s="34"/>
       <c r="L29" s="35" t="s">
@@ -4328,20 +4268,20 @@
       <c r="C30" s="27"/>
       <c r="D30" s="34"/>
       <c r="E30" s="35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="34"/>
@@ -4440,20 +4380,20 @@
       <c r="C31" s="27"/>
       <c r="D31" s="34"/>
       <c r="E31" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
@@ -4552,20 +4492,20 @@
       <c r="C32" s="27"/>
       <c r="D32" s="34"/>
       <c r="E32" s="35" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="35" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>

--- a/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter3/dataConvertTools.xlsx
+++ b/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter3/dataConvertTools.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\CodeLibrary\CodeGenerator\addinCodeConverter3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xujingjiang\developWorkspace1.4\addins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C1EEE1-3B82-4808-A7D1-021653ACBF08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
   <si>
     <t>Setting{}</t>
   </si>
@@ -281,10 +280,6 @@
   </si>
   <si>
     <t>(2)选择目标项目</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>C:\wbc_sam\workspace</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -604,11 +599,116 @@
     <t>機能の認可認証用文字列</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>rba-backend-item-api</t>
+  </si>
+  <si>
+    <t>jp.co.rakuten.brandavenue.backend.item.api</t>
+  </si>
+  <si>
+    <t>rba-common</t>
+  </si>
+  <si>
+    <t>jp.co.rakuten.brandavenue.backend.common</t>
+  </si>
+  <si>
+    <t>jp.co.rakuten.brandavenue.bo.batch.b1001</t>
+  </si>
+  <si>
+    <t>b1001</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>根命名空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="FangSong"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>项目名（20）</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>rba-bo-client</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.metadata</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>.recommenders</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>ExcludedProject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SQL file create</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.25"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>es</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="10.25"/>
@@ -704,7 +804,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +844,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1055,9 +1161,26 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1070,21 +1193,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1361,11 +1479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW195"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CW196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -1384,19 +1502,22 @@
     <col min="14" max="14" width="14.42578125" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="101" width="10"/>
+    <col min="17" max="20" width="10"/>
+    <col min="21" max="21" width="31.28515625" customWidth="1"/>
+    <col min="22" max="22" width="40.7109375" customWidth="1"/>
+    <col min="23" max="101" width="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:100" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="56" t="s">
-        <v>91</v>
+      <c r="D1" s="75" t="s">
+        <v>90</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1410,11 +1531,17 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="U1" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="71"/>
+      <c r="Y1" s="72"/>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
@@ -1495,10 +1622,19 @@
       <c r="C2" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>86</v>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="U2" s="25" t="s">
+        <v>2</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="V2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="65"/>
     </row>
     <row r="3" spans="1:100" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
@@ -1506,16 +1642,27 @@
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
+      <c r="U3" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="66"/>
     </row>
     <row r="4" spans="1:100" s="44" customFormat="1" ht="18.75" customHeight="1">
       <c r="B4" s="48"/>
@@ -1527,17 +1674,28 @@
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="51"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="58"/>
-      <c r="L4" s="57" t="s">
-        <v>87</v>
+      <c r="G4" s="55"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="53"/>
+      <c r="L4" s="76" t="s">
+        <v>86</v>
       </c>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="U4" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="65"/>
     </row>
     <row r="5" spans="1:100" ht="18.75" customHeight="1">
       <c r="B5" s="4"/>
@@ -1548,25 +1706,29 @@
         <v>4</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="64"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="59"/>
       <c r="J5" s="27"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="U5" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="53"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="29"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -1652,25 +1814,25 @@
         <v>6</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="64"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="27"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="29"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -1756,25 +1918,25 @@
         <v>8</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="64"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="59"/>
       <c r="J7" s="27"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="29"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -1860,25 +2022,25 @@
         <v>10</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="64"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="59"/>
       <c r="J8" s="27"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="29"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -1964,25 +2126,25 @@
         <v>12</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
       <c r="J9" s="27"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="29"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -2082,11 +2244,11 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="29"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -2186,11 +2348,11 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="29"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -2290,11 +2452,11 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="68"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -2579,24 +2741,24 @@
     <row r="15" spans="1:100" ht="20.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="41"/>
-      <c r="C15" s="55" t="s">
-        <v>88</v>
+      <c r="C15" s="74" t="s">
+        <v>87</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="55" t="s">
-        <v>89</v>
+      <c r="L15" s="74" t="s">
+        <v>88</v>
       </c>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -2682,23 +2844,25 @@
       <c r="CU15" s="1"/>
       <c r="CV15" s="1"/>
     </row>
-    <row r="16" spans="1:100" ht="14.25" customHeight="1">
+    <row r="16" spans="1:100" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="D16" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3102,15 +3266,13 @@
       <c r="C20" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
       <c r="K20" s="13"/>
@@ -3420,47 +3582,23 @@
       <c r="A23" s="1"/>
       <c r="B23" s="25"/>
       <c r="C23" s="5" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>26</v>
+      <c r="D23" s="77" t="s">
+        <v>107</v>
       </c>
-      <c r="E23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="O23" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="P23" s="38" t="s">
-        <v>37</v>
-      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3549,42 +3687,48 @@
     <row r="24" spans="1:100" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="25"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6" t="s">
-        <v>38</v>
+      <c r="C24" s="5" t="s">
+        <v>25</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>39</v>
+      <c r="D24" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>92</v>
+      <c r="E24" s="15" t="s">
+        <v>27</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>40</v>
+      <c r="F24" s="15" t="s">
+        <v>23</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>41</v>
+      <c r="G24" s="15" t="s">
+        <v>28</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>42</v>
+      <c r="H24" s="15" t="s">
+        <v>29</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>43</v>
+      <c r="I24" s="15" t="s">
+        <v>30</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>44</v>
+      <c r="J24" s="15" t="s">
+        <v>31</v>
       </c>
-      <c r="L24" s="35" t="s">
-        <v>38</v>
+      <c r="K24" s="37" t="s">
+        <v>32</v>
       </c>
-      <c r="M24" s="35" t="s">
-        <v>38</v>
+      <c r="L24" s="37" t="s">
+        <v>33</v>
       </c>
-      <c r="N24" s="35" t="s">
-        <v>38</v>
+      <c r="M24" s="37" t="s">
+        <v>34</v>
       </c>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
+      <c r="N24" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="P24" s="38" t="s">
+        <v>37</v>
+      </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
@@ -3673,26 +3817,30 @@
     <row r="25" spans="1:100" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="25"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E25" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="G25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
-      <c r="K25" s="19" t="s">
-        <v>49</v>
+      <c r="K25" s="17" t="s">
+        <v>44</v>
       </c>
       <c r="L25" s="35" t="s">
         <v>38</v>
@@ -3704,9 +3852,7 @@
         <v>38</v>
       </c>
       <c r="O25" s="34"/>
-      <c r="P25" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="P25" s="34"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
@@ -3796,35 +3942,39 @@
       <c r="A26" s="1"/>
       <c r="B26" s="25"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="18"/>
+      <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
-      <c r="F26" s="68" t="s">
-        <v>93</v>
-      </c>
+      <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
         <v>40</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L26" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="34"/>
+      <c r="M26" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
+      <c r="P26" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
@@ -3914,32 +4064,32 @@
       <c r="A27" s="1"/>
       <c r="B27" s="25"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="14" t="s">
-        <v>55</v>
+      <c r="D27" s="18"/>
+      <c r="E27" s="6" t="s">
+        <v>50</v>
       </c>
-      <c r="F27" s="69" t="s">
-        <v>94</v>
+      <c r="F27" s="63" t="s">
+        <v>92</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>56</v>
+      <c r="H27" s="6" t="s">
+        <v>51</v>
       </c>
-      <c r="I27" s="14" t="s">
-        <v>57</v>
+      <c r="I27" s="6" t="s">
+        <v>52</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>58</v>
+      <c r="J27" s="6" t="s">
+        <v>53</v>
       </c>
-      <c r="K27" s="33" t="s">
-        <v>49</v>
+      <c r="K27" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="L27" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="M27" s="34"/>
+      <c r="M27" s="35"/>
       <c r="N27" s="34"/>
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
@@ -4031,27 +4181,27 @@
     <row r="28" spans="1:100" ht="14.25" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="25"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35" t="s">
-        <v>59</v>
+      <c r="C28" s="27"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="14" t="s">
+        <v>55</v>
       </c>
-      <c r="F28" s="35" t="s">
-        <v>60</v>
+      <c r="F28" s="64" t="s">
+        <v>93</v>
       </c>
-      <c r="G28" s="35" t="s">
-        <v>61</v>
+      <c r="G28" s="14" t="s">
+        <v>40</v>
       </c>
-      <c r="H28" s="35" t="s">
-        <v>62</v>
+      <c r="H28" s="14" t="s">
+        <v>56</v>
       </c>
-      <c r="I28" s="35" t="s">
-        <v>63</v>
+      <c r="I28" s="14" t="s">
+        <v>57</v>
       </c>
-      <c r="J28" s="35" t="s">
-        <v>64</v>
+      <c r="J28" s="14" t="s">
+        <v>58</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="33" t="s">
         <v>49</v>
       </c>
       <c r="L28" s="35" t="s">
@@ -4149,27 +4299,29 @@
     <row r="29" spans="1:100" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="25"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="35"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="35" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F29" s="35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
-      <c r="K29" s="34"/>
+      <c r="K29" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="L29" s="35" t="s">
         <v>38</v>
       </c>
@@ -4265,26 +4417,30 @@
     <row r="30" spans="1:100" ht="14.25" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="25"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="34"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="35" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
-      <c r="F30" s="34"/>
+      <c r="F30" s="35" t="s">
+        <v>66</v>
+      </c>
       <c r="G30" s="35" t="s">
         <v>67</v>
       </c>
       <c r="H30" s="35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
+      <c r="L30" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
       <c r="O30" s="34"/>
@@ -4380,20 +4536,20 @@
       <c r="C31" s="27"/>
       <c r="D31" s="34"/>
       <c r="E31" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K31" s="34"/>
       <c r="L31" s="34"/>
@@ -4492,20 +4648,20 @@
       <c r="C32" s="27"/>
       <c r="D32" s="34"/>
       <c r="E32" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="35" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H32" s="35" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J32" s="35" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K32" s="34"/>
       <c r="L32" s="34"/>
@@ -4603,12 +4759,22 @@
       <c r="B33" s="25"/>
       <c r="C33" s="27"/>
       <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="E33" s="35" t="s">
+        <v>79</v>
+      </c>
       <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
+      <c r="G33" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>81</v>
+      </c>
       <c r="K33" s="34"/>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
@@ -5722,8 +5888,8 @@
     </row>
     <row r="44" spans="1:100" ht="14.25" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
       <c r="F44" s="34"/>
@@ -5822,23 +5988,23 @@
       <c r="CU44" s="1"/>
       <c r="CV44" s="1"/>
     </row>
-    <row r="45" spans="1:100">
+    <row r="45" spans="1:100" ht="14.25" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="34"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
@@ -18775,7 +18941,6 @@
       <c r="CT171" s="1"/>
       <c r="CU171" s="1"/>
       <c r="CV171" s="1"/>
-      <c r="CW171" s="1"/>
     </row>
     <row r="172" spans="1:101">
       <c r="A172" s="1"/>
@@ -18878,6 +19043,7 @@
       <c r="CT172" s="1"/>
       <c r="CU172" s="1"/>
       <c r="CV172" s="1"/>
+      <c r="CW172" s="1"/>
     </row>
     <row r="173" spans="1:101">
       <c r="A173" s="1"/>
@@ -21122,22 +21288,125 @@
       <c r="CT194" s="1"/>
       <c r="CU194" s="1"/>
       <c r="CV194" s="1"/>
-      <c r="CW194" s="1"/>
     </row>
     <row r="195" spans="1:101">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="1"/>
+      <c r="J195" s="1"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
+      <c r="Y195" s="1"/>
+      <c r="Z195" s="1"/>
+      <c r="AA195" s="1"/>
+      <c r="AB195" s="1"/>
+      <c r="AC195" s="1"/>
+      <c r="AD195" s="1"/>
+      <c r="AE195" s="1"/>
+      <c r="AF195" s="1"/>
+      <c r="AG195" s="1"/>
+      <c r="AH195" s="1"/>
+      <c r="AI195" s="1"/>
+      <c r="AJ195" s="1"/>
+      <c r="AK195" s="1"/>
+      <c r="AL195" s="1"/>
+      <c r="AM195" s="1"/>
+      <c r="AN195" s="1"/>
+      <c r="AO195" s="1"/>
+      <c r="AP195" s="1"/>
+      <c r="AQ195" s="1"/>
+      <c r="AR195" s="1"/>
+      <c r="AS195" s="1"/>
+      <c r="AT195" s="1"/>
+      <c r="AU195" s="1"/>
+      <c r="AV195" s="1"/>
+      <c r="AW195" s="1"/>
+      <c r="AX195" s="1"/>
+      <c r="AY195" s="1"/>
+      <c r="AZ195" s="1"/>
+      <c r="BA195" s="1"/>
+      <c r="BB195" s="1"/>
+      <c r="BC195" s="1"/>
+      <c r="BD195" s="1"/>
+      <c r="BE195" s="1"/>
+      <c r="BF195" s="1"/>
+      <c r="BG195" s="1"/>
+      <c r="BH195" s="1"/>
+      <c r="BI195" s="1"/>
+      <c r="BJ195" s="1"/>
+      <c r="BK195" s="1"/>
+      <c r="BL195" s="1"/>
+      <c r="BM195" s="1"/>
+      <c r="BN195" s="1"/>
+      <c r="BO195" s="1"/>
+      <c r="BP195" s="1"/>
+      <c r="BQ195" s="1"/>
+      <c r="BR195" s="1"/>
+      <c r="BS195" s="1"/>
+      <c r="BT195" s="1"/>
+      <c r="BU195" s="1"/>
+      <c r="BV195" s="1"/>
+      <c r="BW195" s="1"/>
+      <c r="BX195" s="1"/>
+      <c r="BY195" s="1"/>
+      <c r="BZ195" s="1"/>
+      <c r="CA195" s="1"/>
+      <c r="CB195" s="1"/>
+      <c r="CC195" s="1"/>
+      <c r="CD195" s="1"/>
+      <c r="CE195" s="1"/>
+      <c r="CF195" s="1"/>
+      <c r="CG195" s="1"/>
+      <c r="CH195" s="1"/>
+      <c r="CI195" s="1"/>
+      <c r="CJ195" s="1"/>
+      <c r="CK195" s="1"/>
+      <c r="CL195" s="1"/>
+      <c r="CM195" s="1"/>
+      <c r="CN195" s="1"/>
+      <c r="CO195" s="1"/>
+      <c r="CP195" s="1"/>
+      <c r="CQ195" s="1"/>
+      <c r="CR195" s="1"/>
+      <c r="CS195" s="1"/>
+      <c r="CT195" s="1"/>
+      <c r="CU195" s="1"/>
       <c r="CV195" s="1"/>
+      <c r="CW195" s="1"/>
+    </row>
+    <row r="196" spans="1:101">
+      <c r="CV196" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="L4:P9"/>
     <mergeCell ref="L15:P16"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="D16:G16"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter3/dataConvertTools.xlsx
+++ b/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter3/dataConvertTools.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xujingjiang\developWorkspace1.4\addins\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\CodeLibrary\CodeGenerator\addinCodeConverter3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D1821B-EA68-4909-B842-6D14CD0866B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17595"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
   <si>
     <t>Setting{}</t>
   </si>
@@ -97,9 +98,6 @@
   </si>
   <si>
     <t>Columns[]</t>
-  </si>
-  <si>
-    <t>IsKey</t>
   </si>
   <si>
     <t>ColumnName</t>
@@ -704,11 +702,39 @@
     </r>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Where</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="10.25"/>
@@ -1101,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1122,7 +1148,6 @@
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1136,7 +1161,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1181,6 +1205,10 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1193,16 +1221,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1479,11 +1506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CW196"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CY196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -1496,24 +1523,26 @@
     <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
-    <col min="13" max="13" width="22" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
-    <col min="17" max="20" width="10"/>
-    <col min="21" max="21" width="31.28515625" customWidth="1"/>
-    <col min="22" max="22" width="40.7109375" customWidth="1"/>
-    <col min="23" max="101" width="10"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="12" width="6.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="22" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" customWidth="1"/>
+    <col min="19" max="22" width="10"/>
+    <col min="23" max="23" width="31.28515625" customWidth="1"/>
+    <col min="24" max="24" width="40.7109375" customWidth="1"/>
+    <col min="25" max="103" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="18.75">
+    <row r="1" spans="1:102" ht="18.75">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="75"/>
       <c r="F1" s="75"/>
@@ -1531,19 +1560,19 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-      <c r="U1" s="69" t="s">
-        <v>101</v>
-      </c>
-      <c r="V1" s="70" t="s">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="70" t="s">
-        <v>105</v>
+      <c r="X1" s="68" t="s">
+        <v>99</v>
       </c>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
+      <c r="Y1" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="70"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
@@ -1617,120 +1646,126 @@
       <c r="CT1" s="1"/>
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
+      <c r="CW1" s="1"/>
+      <c r="CX1" s="1"/>
     </row>
-    <row r="2" spans="1:100" s="44" customFormat="1" ht="21">
-      <c r="C2" s="45" t="s">
-        <v>84</v>
+    <row r="2" spans="1:102" s="42" customFormat="1" ht="21">
+      <c r="C2" s="43" t="s">
+        <v>83</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="47"/>
-      <c r="U2" s="25" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="W2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="X2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="27" t="s">
-        <v>102</v>
+      <c r="Y2" s="26" t="s">
+        <v>101</v>
       </c>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="65"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="63"/>
     </row>
-    <row r="3" spans="1:100" ht="20.25" customHeight="1">
+    <row r="3" spans="1:102" ht="20.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="75"/>
       <c r="F3" s="75"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="U3" s="25" t="s">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="W3" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="X3" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="V3" s="27" t="s">
+      <c r="Y3" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="64"/>
+    </row>
+    <row r="4" spans="1:102" s="42" customFormat="1" ht="18.75" customHeight="1">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="51"/>
+      <c r="N4" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="W4" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="X4" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y4" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="66"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="63"/>
     </row>
-    <row r="4" spans="1:100" s="44" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="53"/>
-      <c r="L4" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="U4" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="V4" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="W4" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="65"/>
-    </row>
-    <row r="5" spans="1:100" ht="18.75" customHeight="1">
+    <row r="5" spans="1:102" ht="18.75" customHeight="1">
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="41" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="76"/>
       <c r="O5" s="76"/>
       <c r="P5" s="76"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="V5" s="28" t="s">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="W5" s="53"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
+      <c r="X5" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="28"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
@@ -1804,8 +1839,10 @@
       <c r="CT5" s="1"/>
       <c r="CU5" s="1"/>
       <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
     </row>
-    <row r="6" spans="1:100" ht="18.75" customHeight="1">
+    <row r="6" spans="1:102" ht="18.75" customHeight="1">
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -1814,27 +1851,27 @@
         <v>6</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="76"/>
       <c r="O6" s="76"/>
       <c r="P6" s="76"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="28"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -1908,8 +1945,10 @@
       <c r="CT6" s="1"/>
       <c r="CU6" s="1"/>
       <c r="CV6" s="1"/>
+      <c r="CW6" s="1"/>
+      <c r="CX6" s="1"/>
     </row>
-    <row r="7" spans="1:100" ht="18.75" customHeight="1">
+    <row r="7" spans="1:102" ht="18.75" customHeight="1">
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
         <v>7</v>
@@ -1918,27 +1957,27 @@
         <v>8</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="1"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
       <c r="P7" s="76"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
-      <c r="X7" s="27"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="28"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
@@ -2012,8 +2051,10 @@
       <c r="CT7" s="1"/>
       <c r="CU7" s="1"/>
       <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
     </row>
-    <row r="8" spans="1:100" ht="18.75" customHeight="1">
+    <row r="8" spans="1:102" ht="18.75" customHeight="1">
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
         <v>9</v>
@@ -2022,27 +2063,27 @@
         <v>10</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="1"/>
       <c r="N8" s="76"/>
       <c r="O8" s="76"/>
       <c r="P8" s="76"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="29"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="28"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -2116,8 +2157,10 @@
       <c r="CT8" s="1"/>
       <c r="CU8" s="1"/>
       <c r="CV8" s="1"/>
+      <c r="CW8" s="1"/>
+      <c r="CX8" s="1"/>
     </row>
-    <row r="9" spans="1:100" ht="18.75" customHeight="1">
+    <row r="9" spans="1:102" ht="18.75" customHeight="1">
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>11</v>
@@ -2126,27 +2169,27 @@
         <v>12</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="1"/>
       <c r="N9" s="76"/>
       <c r="O9" s="76"/>
       <c r="P9" s="76"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="28"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -2220,8 +2263,10 @@
       <c r="CT9" s="1"/>
       <c r="CU9" s="1"/>
       <c r="CV9" s="1"/>
+      <c r="CW9" s="1"/>
+      <c r="CX9" s="1"/>
     </row>
-    <row r="10" spans="1:100" ht="18.75" customHeight="1">
+    <row r="10" spans="1:102" ht="18.75" customHeight="1">
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
         <v>13</v>
@@ -2231,11 +2276,11 @@
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2244,13 +2289,13 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="28"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -2324,22 +2369,24 @@
       <c r="CT10" s="1"/>
       <c r="CU10" s="1"/>
       <c r="CV10" s="1"/>
+      <c r="CW10" s="1"/>
+      <c r="CX10" s="1"/>
     </row>
-    <row r="11" spans="1:100" ht="18.75" customHeight="1">
+    <row r="11" spans="1:102" ht="18.75" customHeight="1">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>82</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>83</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -2348,13 +2395,13 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="28"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
@@ -2428,8 +2475,10 @@
       <c r="CT11" s="1"/>
       <c r="CU11" s="1"/>
       <c r="CV11" s="1"/>
+      <c r="CW11" s="1"/>
+      <c r="CX11" s="1"/>
     </row>
-    <row r="12" spans="1:100" ht="18.75" customHeight="1">
+    <row r="12" spans="1:102" ht="18.75" customHeight="1">
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
         <v>14</v>
@@ -2452,13 +2501,13 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="66"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -2532,8 +2581,10 @@
       <c r="CT12" s="1"/>
       <c r="CU12" s="1"/>
       <c r="CV12" s="1"/>
+      <c r="CW12" s="1"/>
+      <c r="CX12" s="1"/>
     </row>
-    <row r="13" spans="1:100" ht="18.75" customHeight="1">
+    <row r="13" spans="1:102" ht="18.75" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="5" t="s">
         <v>16</v>
@@ -2636,8 +2687,10 @@
       <c r="CT13" s="1"/>
       <c r="CU13" s="1"/>
       <c r="CV13" s="1"/>
+      <c r="CW13" s="1"/>
+      <c r="CX13" s="1"/>
     </row>
-    <row r="14" spans="1:100" ht="14.25" customHeight="1">
+    <row r="14" spans="1:102" ht="14.25" customHeight="1">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -2737,12 +2790,14 @@
       <c r="CT14" s="1"/>
       <c r="CU14" s="1"/>
       <c r="CV14" s="1"/>
+      <c r="CW14" s="1"/>
+      <c r="CX14" s="1"/>
     </row>
-    <row r="15" spans="1:100" ht="20.25" customHeight="1">
+    <row r="15" spans="1:102" ht="20.25" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="41"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="74"/>
       <c r="E15" s="74"/>
@@ -2752,15 +2807,15 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="74" t="s">
-        <v>88</v>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="74" t="s">
+        <v>87</v>
       </c>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
       <c r="O15" s="74"/>
       <c r="P15" s="74"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -2843,28 +2898,30 @@
       <c r="CT15" s="1"/>
       <c r="CU15" s="1"/>
       <c r="CV15" s="1"/>
+      <c r="CW15" s="1"/>
+      <c r="CX15" s="1"/>
     </row>
-    <row r="16" spans="1:100" ht="19.5" customHeight="1">
+    <row r="16" spans="1:102" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="79" t="s">
-        <v>89</v>
+      <c r="D16" s="77" t="s">
+        <v>88</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="N16" s="74"/>
       <c r="O16" s="74"/>
       <c r="P16" s="74"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -2947,8 +3004,10 @@
       <c r="CT16" s="1"/>
       <c r="CU16" s="1"/>
       <c r="CV16" s="1"/>
+      <c r="CW16" s="1"/>
+      <c r="CX16" s="1"/>
     </row>
-    <row r="17" spans="1:100" ht="14.25" customHeight="1">
+    <row r="17" spans="1:102" ht="14.25" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2958,9 +3017,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="J17" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="39" t="s">
+        <v>112</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
@@ -3049,28 +3114,30 @@
       <c r="CT17" s="1"/>
       <c r="CU17" s="1"/>
       <c r="CV17" s="1"/>
+      <c r="CW17" s="1"/>
+      <c r="CX17" s="1"/>
     </row>
-    <row r="18" spans="1:100" ht="14.25" customHeight="1">
+    <row r="18" spans="1:102" ht="14.25" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="23"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
@@ -3153,10 +3220,12 @@
       <c r="CT18" s="1"/>
       <c r="CU18" s="1"/>
       <c r="CV18" s="1"/>
+      <c r="CW18" s="1"/>
+      <c r="CX18" s="1"/>
     </row>
-    <row r="19" spans="1:100" ht="14.25" customHeight="1">
+    <row r="19" spans="1:102" ht="14.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="25"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
@@ -3164,19 +3233,19 @@
         <v>20</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="41"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="13"/>
       <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="28"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
@@ -3259,30 +3328,32 @@
       <c r="CT19" s="1"/>
       <c r="CU19" s="1"/>
       <c r="CV19" s="1"/>
+      <c r="CW19" s="1"/>
+      <c r="CX19" s="1"/>
     </row>
-    <row r="20" spans="1:100" ht="19.5" customHeight="1">
+    <row r="20" spans="1:102" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="52" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="72" t="s">
         <v>22</v>
       </c>
       <c r="E20" s="73"/>
       <c r="F20" s="74"/>
       <c r="G20" s="74"/>
       <c r="H20" s="74"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="40"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="13"/>
       <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="28"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
@@ -3365,10 +3436,12 @@
       <c r="CT20" s="1"/>
       <c r="CU20" s="1"/>
       <c r="CV20" s="1"/>
+      <c r="CW20" s="1"/>
+      <c r="CX20" s="1"/>
     </row>
-    <row r="21" spans="1:100" ht="14.25" customHeight="1">
+    <row r="21" spans="1:102" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="25"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="5" t="s">
         <v>23</v>
       </c>
@@ -3376,19 +3449,19 @@
         <v>20</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="27"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="13"/>
       <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="28"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
@@ -3471,10 +3544,12 @@
       <c r="CT21" s="1"/>
       <c r="CU21" s="1"/>
       <c r="CV21" s="1"/>
+      <c r="CW21" s="1"/>
+      <c r="CX21" s="1"/>
     </row>
-    <row r="22" spans="1:100" ht="14.25" customHeight="1">
+    <row r="22" spans="1:102" ht="14.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="5" t="s">
         <v>16</v>
       </c>
@@ -3482,19 +3557,19 @@
         <v>24</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="13"/>
       <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="28"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -3577,30 +3652,32 @@
       <c r="CT22" s="1"/>
       <c r="CU22" s="1"/>
       <c r="CV22" s="1"/>
+      <c r="CW22" s="1"/>
+      <c r="CX22" s="1"/>
     </row>
-    <row r="23" spans="1:100" ht="14.25" customHeight="1">
+    <row r="23" spans="1:102" ht="14.25" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="25"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="77" t="s">
-        <v>107</v>
-      </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="27"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="13"/>
       <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="28"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
@@ -3683,10 +3760,12 @@
       <c r="CT23" s="1"/>
       <c r="CU23" s="1"/>
       <c r="CV23" s="1"/>
+      <c r="CW23" s="1"/>
+      <c r="CX23" s="1"/>
     </row>
-    <row r="24" spans="1:100" ht="14.25" customHeight="1">
+    <row r="24" spans="1:102" ht="14.25" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="25"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="5" t="s">
         <v>25</v>
       </c>
@@ -3694,10 +3773,10 @@
         <v>26</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>28</v>
@@ -3709,28 +3788,32 @@
         <v>30</v>
       </c>
       <c r="J24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M24" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="N24" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="37" t="s">
+      <c r="O24" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="37" t="s">
+      <c r="P24" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="37" t="s">
+      <c r="Q24" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="O24" s="37" t="s">
+      <c r="R24" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="P24" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -3813,19 +3896,21 @@
       <c r="CT24" s="1"/>
       <c r="CU24" s="1"/>
       <c r="CV24" s="1"/>
+      <c r="CW24" s="1"/>
+      <c r="CX24" s="1"/>
     </row>
-    <row r="25" spans="1:100" ht="14.25" customHeight="1">
+    <row r="25" spans="1:102" ht="14.25" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="25"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>40</v>
@@ -3836,25 +3921,29 @@
       <c r="I25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>44</v>
+      <c r="N25" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="L25" s="35" t="s">
-        <v>38</v>
+      <c r="O25" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="M25" s="35" t="s">
-        <v>38</v>
+      <c r="P25" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="N25" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -3937,18 +4026,22 @@
       <c r="CT25" s="1"/>
       <c r="CU25" s="1"/>
       <c r="CV25" s="1"/>
+      <c r="CW25" s="1"/>
+      <c r="CX25" s="1"/>
     </row>
-    <row r="26" spans="1:100" ht="14.25" customHeight="1">
+    <row r="26" spans="1:102" ht="14.25" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>46</v>
@@ -3956,27 +4049,27 @@
       <c r="I26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="6"/>
+      <c r="K26" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="19" t="s">
-        <v>49</v>
+      <c r="N26" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="L26" s="35" t="s">
-        <v>38</v>
+      <c r="O26" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="M26" s="35" t="s">
-        <v>38</v>
+      <c r="P26" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="N26" s="35" t="s">
-        <v>38</v>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="O26" s="34"/>
-      <c r="P26" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
@@ -4059,20 +4152,24 @@
       <c r="CT26" s="1"/>
       <c r="CU26" s="1"/>
       <c r="CV26" s="1"/>
+      <c r="CW26" s="1"/>
+      <c r="CX26" s="1"/>
     </row>
-    <row r="27" spans="1:100" ht="14.25" customHeight="1">
+    <row r="27" spans="1:102" ht="14.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="6" t="s">
-        <v>50</v>
+      <c r="B27" s="24"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="6" t="s">
+        <v>49</v>
       </c>
-      <c r="F27" s="63" t="s">
-        <v>92</v>
+      <c r="E27" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>51</v>
@@ -4080,21 +4177,21 @@
       <c r="I27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="6"/>
+      <c r="K27" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="19" t="s">
-        <v>54</v>
+      <c r="N27" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="L27" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
@@ -4177,20 +4274,24 @@
       <c r="CT27" s="1"/>
       <c r="CU27" s="1"/>
       <c r="CV27" s="1"/>
+      <c r="CW27" s="1"/>
+      <c r="CX27" s="1"/>
     </row>
-    <row r="28" spans="1:100" ht="14.25" customHeight="1">
+    <row r="28" spans="1:102" ht="14.25" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="14" t="s">
-        <v>55</v>
+      <c r="B28" s="24"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="14" t="s">
+        <v>54</v>
       </c>
-      <c r="F28" s="64" t="s">
-        <v>93</v>
+      <c r="E28" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>56</v>
@@ -4198,21 +4299,21 @@
       <c r="I28" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="14" t="s">
-        <v>58</v>
+      <c r="J28" s="14"/>
+      <c r="K28" s="80" t="s">
+        <v>113</v>
       </c>
-      <c r="K28" s="33" t="s">
-        <v>49</v>
+      <c r="L28" s="14"/>
+      <c r="M28" s="31" t="s">
+        <v>48</v>
       </c>
-      <c r="L28" s="35" t="s">
-        <v>38</v>
+      <c r="N28" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
@@ -4295,42 +4396,46 @@
       <c r="CT28" s="1"/>
       <c r="CU28" s="1"/>
       <c r="CV28" s="1"/>
+      <c r="CW28" s="1"/>
+      <c r="CX28" s="1"/>
     </row>
-    <row r="29" spans="1:100" ht="14.25" customHeight="1">
+    <row r="29" spans="1:102" ht="14.25" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="35" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="35" t="s">
+      <c r="G29" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="35" t="s">
+      <c r="I29" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="J29" s="35" t="s">
-        <v>64</v>
+      <c r="J29" s="33"/>
+      <c r="K29" s="80" t="s">
+        <v>113</v>
       </c>
-      <c r="K29" s="36" t="s">
-        <v>49</v>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34" t="s">
+        <v>48</v>
       </c>
-      <c r="L29" s="35" t="s">
-        <v>38</v>
+      <c r="N29" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
@@ -4413,40 +4518,44 @@
       <c r="CT29" s="1"/>
       <c r="CU29" s="1"/>
       <c r="CV29" s="1"/>
+      <c r="CW29" s="1"/>
+      <c r="CX29" s="1"/>
     </row>
-    <row r="30" spans="1:100" ht="14.25" customHeight="1">
+    <row r="30" spans="1:102" ht="14.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="35" t="s">
+      <c r="F30" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="35" t="s">
+      <c r="I30" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="35" t="s">
-        <v>70</v>
+      <c r="J30" s="33"/>
+      <c r="K30" s="80" t="s">
+        <v>113</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35" t="s">
-        <v>38</v>
+      <c r="L30" s="33"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="33" t="s">
+        <v>37</v>
       </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
@@ -4529,36 +4638,40 @@
       <c r="CT30" s="1"/>
       <c r="CU30" s="1"/>
       <c r="CV30" s="1"/>
+      <c r="CW30" s="1"/>
+      <c r="CX30" s="1"/>
     </row>
-    <row r="31" spans="1:100" ht="14.25" customHeight="1">
+    <row r="31" spans="1:102" ht="14.25" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="35" t="s">
+      <c r="I31" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="35" t="s">
-        <v>74</v>
+      <c r="J31" s="33"/>
+      <c r="K31" s="80" t="s">
+        <v>113</v>
       </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
@@ -4641,36 +4754,40 @@
       <c r="CT31" s="1"/>
       <c r="CU31" s="1"/>
       <c r="CV31" s="1"/>
+      <c r="CW31" s="1"/>
+      <c r="CX31" s="1"/>
     </row>
-    <row r="32" spans="1:100" ht="14.25" customHeight="1">
+    <row r="32" spans="1:102" ht="14.25" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="35" t="s">
+      <c r="I32" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="J32" s="35" t="s">
-        <v>78</v>
+      <c r="J32" s="33"/>
+      <c r="K32" s="80" t="s">
+        <v>113</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -4753,36 +4870,40 @@
       <c r="CT32" s="1"/>
       <c r="CU32" s="1"/>
       <c r="CV32" s="1"/>
+      <c r="CW32" s="1"/>
+      <c r="CX32" s="1"/>
     </row>
-    <row r="33" spans="1:100" ht="14.25" customHeight="1">
+    <row r="33" spans="1:102" ht="14.25" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" s="35" t="s">
+      <c r="I33" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="J33" s="35" t="s">
-        <v>81</v>
+      <c r="J33" s="33"/>
+      <c r="K33" s="80" t="s">
+        <v>113</v>
       </c>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
@@ -4865,26 +4986,28 @@
       <c r="CT33" s="1"/>
       <c r="CU33" s="1"/>
       <c r="CV33" s="1"/>
+      <c r="CW33" s="1"/>
+      <c r="CX33" s="1"/>
     </row>
-    <row r="34" spans="1:100" ht="14.25" customHeight="1">
+    <row r="34" spans="1:102" ht="14.25" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
@@ -4967,26 +5090,28 @@
       <c r="CT34" s="1"/>
       <c r="CU34" s="1"/>
       <c r="CV34" s="1"/>
+      <c r="CW34" s="1"/>
+      <c r="CX34" s="1"/>
     </row>
-    <row r="35" spans="1:100" ht="14.25" customHeight="1">
+    <row r="35" spans="1:102" ht="14.25" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
@@ -5069,26 +5194,28 @@
       <c r="CT35" s="1"/>
       <c r="CU35" s="1"/>
       <c r="CV35" s="1"/>
+      <c r="CW35" s="1"/>
+      <c r="CX35" s="1"/>
     </row>
-    <row r="36" spans="1:100" ht="14.25" customHeight="1">
+    <row r="36" spans="1:102" ht="14.25" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
@@ -5171,26 +5298,28 @@
       <c r="CT36" s="1"/>
       <c r="CU36" s="1"/>
       <c r="CV36" s="1"/>
+      <c r="CW36" s="1"/>
+      <c r="CX36" s="1"/>
     </row>
-    <row r="37" spans="1:100" ht="14.25" customHeight="1">
+    <row r="37" spans="1:102" ht="14.25" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -5273,26 +5402,28 @@
       <c r="CT37" s="1"/>
       <c r="CU37" s="1"/>
       <c r="CV37" s="1"/>
+      <c r="CW37" s="1"/>
+      <c r="CX37" s="1"/>
     </row>
-    <row r="38" spans="1:100" ht="14.25" customHeight="1">
+    <row r="38" spans="1:102" ht="14.25" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="32"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
@@ -5375,26 +5506,28 @@
       <c r="CT38" s="1"/>
       <c r="CU38" s="1"/>
       <c r="CV38" s="1"/>
+      <c r="CW38" s="1"/>
+      <c r="CX38" s="1"/>
     </row>
-    <row r="39" spans="1:100" ht="14.25" customHeight="1">
+    <row r="39" spans="1:102" ht="14.25" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="32"/>
+      <c r="R39" s="32"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
@@ -5477,26 +5610,28 @@
       <c r="CT39" s="1"/>
       <c r="CU39" s="1"/>
       <c r="CV39" s="1"/>
+      <c r="CW39" s="1"/>
+      <c r="CX39" s="1"/>
     </row>
-    <row r="40" spans="1:100" ht="14.25" customHeight="1">
+    <row r="40" spans="1:102" ht="14.25" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
+      <c r="R40" s="32"/>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
@@ -5579,26 +5714,28 @@
       <c r="CT40" s="1"/>
       <c r="CU40" s="1"/>
       <c r="CV40" s="1"/>
+      <c r="CW40" s="1"/>
+      <c r="CX40" s="1"/>
     </row>
-    <row r="41" spans="1:100" ht="14.25" customHeight="1">
+    <row r="41" spans="1:102" ht="14.25" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="32"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
@@ -5681,26 +5818,28 @@
       <c r="CT41" s="1"/>
       <c r="CU41" s="1"/>
       <c r="CV41" s="1"/>
+      <c r="CW41" s="1"/>
+      <c r="CX41" s="1"/>
     </row>
-    <row r="42" spans="1:100" ht="14.25" customHeight="1">
+    <row r="42" spans="1:102" ht="14.25" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
+      <c r="R42" s="32"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
@@ -5783,26 +5922,28 @@
       <c r="CT42" s="1"/>
       <c r="CU42" s="1"/>
       <c r="CV42" s="1"/>
+      <c r="CW42" s="1"/>
+      <c r="CX42" s="1"/>
     </row>
-    <row r="43" spans="1:100" ht="14.25" customHeight="1">
+    <row r="43" spans="1:102" ht="14.25" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
@@ -5885,26 +6026,28 @@
       <c r="CT43" s="1"/>
       <c r="CU43" s="1"/>
       <c r="CV43" s="1"/>
+      <c r="CW43" s="1"/>
+      <c r="CX43" s="1"/>
     </row>
-    <row r="44" spans="1:100" ht="14.25" customHeight="1">
+    <row r="44" spans="1:102" ht="14.25" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
@@ -5987,26 +6130,28 @@
       <c r="CT44" s="1"/>
       <c r="CU44" s="1"/>
       <c r="CV44" s="1"/>
+      <c r="CW44" s="1"/>
+      <c r="CX44" s="1"/>
     </row>
-    <row r="45" spans="1:100" ht="14.25" customHeight="1">
+    <row r="45" spans="1:102" ht="14.25" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="32"/>
+      <c r="R45" s="32"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
@@ -6089,8 +6234,10 @@
       <c r="CT45" s="1"/>
       <c r="CU45" s="1"/>
       <c r="CV45" s="1"/>
+      <c r="CW45" s="1"/>
+      <c r="CX45" s="1"/>
     </row>
-    <row r="46" spans="1:100">
+    <row r="46" spans="1:102">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -6191,8 +6338,10 @@
       <c r="CT46" s="1"/>
       <c r="CU46" s="1"/>
       <c r="CV46" s="1"/>
+      <c r="CW46" s="1"/>
+      <c r="CX46" s="1"/>
     </row>
-    <row r="47" spans="1:100">
+    <row r="47" spans="1:102">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -6293,8 +6442,10 @@
       <c r="CT47" s="1"/>
       <c r="CU47" s="1"/>
       <c r="CV47" s="1"/>
+      <c r="CW47" s="1"/>
+      <c r="CX47" s="1"/>
     </row>
-    <row r="48" spans="1:100">
+    <row r="48" spans="1:102">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6395,8 +6546,10 @@
       <c r="CT48" s="1"/>
       <c r="CU48" s="1"/>
       <c r="CV48" s="1"/>
+      <c r="CW48" s="1"/>
+      <c r="CX48" s="1"/>
     </row>
-    <row r="49" spans="1:100">
+    <row r="49" spans="1:102">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6497,8 +6650,10 @@
       <c r="CT49" s="1"/>
       <c r="CU49" s="1"/>
       <c r="CV49" s="1"/>
+      <c r="CW49" s="1"/>
+      <c r="CX49" s="1"/>
     </row>
-    <row r="50" spans="1:100">
+    <row r="50" spans="1:102">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6599,8 +6754,10 @@
       <c r="CT50" s="1"/>
       <c r="CU50" s="1"/>
       <c r="CV50" s="1"/>
+      <c r="CW50" s="1"/>
+      <c r="CX50" s="1"/>
     </row>
-    <row r="51" spans="1:100">
+    <row r="51" spans="1:102">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6701,8 +6858,10 @@
       <c r="CT51" s="1"/>
       <c r="CU51" s="1"/>
       <c r="CV51" s="1"/>
+      <c r="CW51" s="1"/>
+      <c r="CX51" s="1"/>
     </row>
-    <row r="52" spans="1:100">
+    <row r="52" spans="1:102">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6803,8 +6962,10 @@
       <c r="CT52" s="1"/>
       <c r="CU52" s="1"/>
       <c r="CV52" s="1"/>
+      <c r="CW52" s="1"/>
+      <c r="CX52" s="1"/>
     </row>
-    <row r="53" spans="1:100">
+    <row r="53" spans="1:102">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6905,8 +7066,10 @@
       <c r="CT53" s="1"/>
       <c r="CU53" s="1"/>
       <c r="CV53" s="1"/>
+      <c r="CW53" s="1"/>
+      <c r="CX53" s="1"/>
     </row>
-    <row r="54" spans="1:100">
+    <row r="54" spans="1:102">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -7007,8 +7170,10 @@
       <c r="CT54" s="1"/>
       <c r="CU54" s="1"/>
       <c r="CV54" s="1"/>
+      <c r="CW54" s="1"/>
+      <c r="CX54" s="1"/>
     </row>
-    <row r="55" spans="1:100">
+    <row r="55" spans="1:102">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -7109,8 +7274,10 @@
       <c r="CT55" s="1"/>
       <c r="CU55" s="1"/>
       <c r="CV55" s="1"/>
+      <c r="CW55" s="1"/>
+      <c r="CX55" s="1"/>
     </row>
-    <row r="56" spans="1:100">
+    <row r="56" spans="1:102">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -7211,8 +7378,10 @@
       <c r="CT56" s="1"/>
       <c r="CU56" s="1"/>
       <c r="CV56" s="1"/>
+      <c r="CW56" s="1"/>
+      <c r="CX56" s="1"/>
     </row>
-    <row r="57" spans="1:100">
+    <row r="57" spans="1:102">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -7313,8 +7482,10 @@
       <c r="CT57" s="1"/>
       <c r="CU57" s="1"/>
       <c r="CV57" s="1"/>
+      <c r="CW57" s="1"/>
+      <c r="CX57" s="1"/>
     </row>
-    <row r="58" spans="1:100">
+    <row r="58" spans="1:102">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -7415,8 +7586,10 @@
       <c r="CT58" s="1"/>
       <c r="CU58" s="1"/>
       <c r="CV58" s="1"/>
+      <c r="CW58" s="1"/>
+      <c r="CX58" s="1"/>
     </row>
-    <row r="59" spans="1:100">
+    <row r="59" spans="1:102">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -7517,8 +7690,10 @@
       <c r="CT59" s="1"/>
       <c r="CU59" s="1"/>
       <c r="CV59" s="1"/>
+      <c r="CW59" s="1"/>
+      <c r="CX59" s="1"/>
     </row>
-    <row r="60" spans="1:100">
+    <row r="60" spans="1:102">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -7619,8 +7794,10 @@
       <c r="CT60" s="1"/>
       <c r="CU60" s="1"/>
       <c r="CV60" s="1"/>
+      <c r="CW60" s="1"/>
+      <c r="CX60" s="1"/>
     </row>
-    <row r="61" spans="1:100">
+    <row r="61" spans="1:102">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -7721,8 +7898,10 @@
       <c r="CT61" s="1"/>
       <c r="CU61" s="1"/>
       <c r="CV61" s="1"/>
+      <c r="CW61" s="1"/>
+      <c r="CX61" s="1"/>
     </row>
-    <row r="62" spans="1:100">
+    <row r="62" spans="1:102">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -7823,8 +8002,10 @@
       <c r="CT62" s="1"/>
       <c r="CU62" s="1"/>
       <c r="CV62" s="1"/>
+      <c r="CW62" s="1"/>
+      <c r="CX62" s="1"/>
     </row>
-    <row r="63" spans="1:100">
+    <row r="63" spans="1:102">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -7925,8 +8106,10 @@
       <c r="CT63" s="1"/>
       <c r="CU63" s="1"/>
       <c r="CV63" s="1"/>
+      <c r="CW63" s="1"/>
+      <c r="CX63" s="1"/>
     </row>
-    <row r="64" spans="1:100">
+    <row r="64" spans="1:102">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -8027,8 +8210,10 @@
       <c r="CT64" s="1"/>
       <c r="CU64" s="1"/>
       <c r="CV64" s="1"/>
+      <c r="CW64" s="1"/>
+      <c r="CX64" s="1"/>
     </row>
-    <row r="65" spans="1:100">
+    <row r="65" spans="1:102">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -8129,8 +8314,10 @@
       <c r="CT65" s="1"/>
       <c r="CU65" s="1"/>
       <c r="CV65" s="1"/>
+      <c r="CW65" s="1"/>
+      <c r="CX65" s="1"/>
     </row>
-    <row r="66" spans="1:100">
+    <row r="66" spans="1:102">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -8231,8 +8418,10 @@
       <c r="CT66" s="1"/>
       <c r="CU66" s="1"/>
       <c r="CV66" s="1"/>
+      <c r="CW66" s="1"/>
+      <c r="CX66" s="1"/>
     </row>
-    <row r="67" spans="1:100">
+    <row r="67" spans="1:102">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -8333,8 +8522,10 @@
       <c r="CT67" s="1"/>
       <c r="CU67" s="1"/>
       <c r="CV67" s="1"/>
+      <c r="CW67" s="1"/>
+      <c r="CX67" s="1"/>
     </row>
-    <row r="68" spans="1:100">
+    <row r="68" spans="1:102">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -8435,8 +8626,10 @@
       <c r="CT68" s="1"/>
       <c r="CU68" s="1"/>
       <c r="CV68" s="1"/>
+      <c r="CW68" s="1"/>
+      <c r="CX68" s="1"/>
     </row>
-    <row r="69" spans="1:100">
+    <row r="69" spans="1:102">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -8537,8 +8730,10 @@
       <c r="CT69" s="1"/>
       <c r="CU69" s="1"/>
       <c r="CV69" s="1"/>
+      <c r="CW69" s="1"/>
+      <c r="CX69" s="1"/>
     </row>
-    <row r="70" spans="1:100">
+    <row r="70" spans="1:102">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -8639,8 +8834,10 @@
       <c r="CT70" s="1"/>
       <c r="CU70" s="1"/>
       <c r="CV70" s="1"/>
+      <c r="CW70" s="1"/>
+      <c r="CX70" s="1"/>
     </row>
-    <row r="71" spans="1:100">
+    <row r="71" spans="1:102">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -8741,8 +8938,10 @@
       <c r="CT71" s="1"/>
       <c r="CU71" s="1"/>
       <c r="CV71" s="1"/>
+      <c r="CW71" s="1"/>
+      <c r="CX71" s="1"/>
     </row>
-    <row r="72" spans="1:100">
+    <row r="72" spans="1:102">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -8843,8 +9042,10 @@
       <c r="CT72" s="1"/>
       <c r="CU72" s="1"/>
       <c r="CV72" s="1"/>
+      <c r="CW72" s="1"/>
+      <c r="CX72" s="1"/>
     </row>
-    <row r="73" spans="1:100">
+    <row r="73" spans="1:102">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -8945,8 +9146,10 @@
       <c r="CT73" s="1"/>
       <c r="CU73" s="1"/>
       <c r="CV73" s="1"/>
+      <c r="CW73" s="1"/>
+      <c r="CX73" s="1"/>
     </row>
-    <row r="74" spans="1:100">
+    <row r="74" spans="1:102">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -9047,8 +9250,10 @@
       <c r="CT74" s="1"/>
       <c r="CU74" s="1"/>
       <c r="CV74" s="1"/>
+      <c r="CW74" s="1"/>
+      <c r="CX74" s="1"/>
     </row>
-    <row r="75" spans="1:100">
+    <row r="75" spans="1:102">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -9149,8 +9354,10 @@
       <c r="CT75" s="1"/>
       <c r="CU75" s="1"/>
       <c r="CV75" s="1"/>
+      <c r="CW75" s="1"/>
+      <c r="CX75" s="1"/>
     </row>
-    <row r="76" spans="1:100">
+    <row r="76" spans="1:102">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -9251,8 +9458,10 @@
       <c r="CT76" s="1"/>
       <c r="CU76" s="1"/>
       <c r="CV76" s="1"/>
+      <c r="CW76" s="1"/>
+      <c r="CX76" s="1"/>
     </row>
-    <row r="77" spans="1:100">
+    <row r="77" spans="1:102">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -9353,8 +9562,10 @@
       <c r="CT77" s="1"/>
       <c r="CU77" s="1"/>
       <c r="CV77" s="1"/>
+      <c r="CW77" s="1"/>
+      <c r="CX77" s="1"/>
     </row>
-    <row r="78" spans="1:100">
+    <row r="78" spans="1:102">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -9455,8 +9666,10 @@
       <c r="CT78" s="1"/>
       <c r="CU78" s="1"/>
       <c r="CV78" s="1"/>
+      <c r="CW78" s="1"/>
+      <c r="CX78" s="1"/>
     </row>
-    <row r="79" spans="1:100">
+    <row r="79" spans="1:102">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -9557,8 +9770,10 @@
       <c r="CT79" s="1"/>
       <c r="CU79" s="1"/>
       <c r="CV79" s="1"/>
+      <c r="CW79" s="1"/>
+      <c r="CX79" s="1"/>
     </row>
-    <row r="80" spans="1:100">
+    <row r="80" spans="1:102">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -9659,8 +9874,10 @@
       <c r="CT80" s="1"/>
       <c r="CU80" s="1"/>
       <c r="CV80" s="1"/>
+      <c r="CW80" s="1"/>
+      <c r="CX80" s="1"/>
     </row>
-    <row r="81" spans="1:100">
+    <row r="81" spans="1:102">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -9761,8 +9978,10 @@
       <c r="CT81" s="1"/>
       <c r="CU81" s="1"/>
       <c r="CV81" s="1"/>
+      <c r="CW81" s="1"/>
+      <c r="CX81" s="1"/>
     </row>
-    <row r="82" spans="1:100">
+    <row r="82" spans="1:102">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -9863,8 +10082,10 @@
       <c r="CT82" s="1"/>
       <c r="CU82" s="1"/>
       <c r="CV82" s="1"/>
+      <c r="CW82" s="1"/>
+      <c r="CX82" s="1"/>
     </row>
-    <row r="83" spans="1:100">
+    <row r="83" spans="1:102">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -9965,8 +10186,10 @@
       <c r="CT83" s="1"/>
       <c r="CU83" s="1"/>
       <c r="CV83" s="1"/>
+      <c r="CW83" s="1"/>
+      <c r="CX83" s="1"/>
     </row>
-    <row r="84" spans="1:100">
+    <row r="84" spans="1:102">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -10067,8 +10290,10 @@
       <c r="CT84" s="1"/>
       <c r="CU84" s="1"/>
       <c r="CV84" s="1"/>
+      <c r="CW84" s="1"/>
+      <c r="CX84" s="1"/>
     </row>
-    <row r="85" spans="1:100">
+    <row r="85" spans="1:102">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -10169,8 +10394,10 @@
       <c r="CT85" s="1"/>
       <c r="CU85" s="1"/>
       <c r="CV85" s="1"/>
+      <c r="CW85" s="1"/>
+      <c r="CX85" s="1"/>
     </row>
-    <row r="86" spans="1:100">
+    <row r="86" spans="1:102">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -10271,8 +10498,10 @@
       <c r="CT86" s="1"/>
       <c r="CU86" s="1"/>
       <c r="CV86" s="1"/>
+      <c r="CW86" s="1"/>
+      <c r="CX86" s="1"/>
     </row>
-    <row r="87" spans="1:100">
+    <row r="87" spans="1:102">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -10373,8 +10602,10 @@
       <c r="CT87" s="1"/>
       <c r="CU87" s="1"/>
       <c r="CV87" s="1"/>
+      <c r="CW87" s="1"/>
+      <c r="CX87" s="1"/>
     </row>
-    <row r="88" spans="1:100">
+    <row r="88" spans="1:102">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -10475,8 +10706,10 @@
       <c r="CT88" s="1"/>
       <c r="CU88" s="1"/>
       <c r="CV88" s="1"/>
+      <c r="CW88" s="1"/>
+      <c r="CX88" s="1"/>
     </row>
-    <row r="89" spans="1:100">
+    <row r="89" spans="1:102">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -10577,8 +10810,10 @@
       <c r="CT89" s="1"/>
       <c r="CU89" s="1"/>
       <c r="CV89" s="1"/>
+      <c r="CW89" s="1"/>
+      <c r="CX89" s="1"/>
     </row>
-    <row r="90" spans="1:100">
+    <row r="90" spans="1:102">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -10679,8 +10914,10 @@
       <c r="CT90" s="1"/>
       <c r="CU90" s="1"/>
       <c r="CV90" s="1"/>
+      <c r="CW90" s="1"/>
+      <c r="CX90" s="1"/>
     </row>
-    <row r="91" spans="1:100">
+    <row r="91" spans="1:102">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -10781,8 +11018,10 @@
       <c r="CT91" s="1"/>
       <c r="CU91" s="1"/>
       <c r="CV91" s="1"/>
+      <c r="CW91" s="1"/>
+      <c r="CX91" s="1"/>
     </row>
-    <row r="92" spans="1:100">
+    <row r="92" spans="1:102">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -10883,8 +11122,10 @@
       <c r="CT92" s="1"/>
       <c r="CU92" s="1"/>
       <c r="CV92" s="1"/>
+      <c r="CW92" s="1"/>
+      <c r="CX92" s="1"/>
     </row>
-    <row r="93" spans="1:100">
+    <row r="93" spans="1:102">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -10985,8 +11226,10 @@
       <c r="CT93" s="1"/>
       <c r="CU93" s="1"/>
       <c r="CV93" s="1"/>
+      <c r="CW93" s="1"/>
+      <c r="CX93" s="1"/>
     </row>
-    <row r="94" spans="1:100">
+    <row r="94" spans="1:102">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -11087,8 +11330,10 @@
       <c r="CT94" s="1"/>
       <c r="CU94" s="1"/>
       <c r="CV94" s="1"/>
+      <c r="CW94" s="1"/>
+      <c r="CX94" s="1"/>
     </row>
-    <row r="95" spans="1:100">
+    <row r="95" spans="1:102">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -11189,8 +11434,10 @@
       <c r="CT95" s="1"/>
       <c r="CU95" s="1"/>
       <c r="CV95" s="1"/>
+      <c r="CW95" s="1"/>
+      <c r="CX95" s="1"/>
     </row>
-    <row r="96" spans="1:100">
+    <row r="96" spans="1:102">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -11291,8 +11538,10 @@
       <c r="CT96" s="1"/>
       <c r="CU96" s="1"/>
       <c r="CV96" s="1"/>
+      <c r="CW96" s="1"/>
+      <c r="CX96" s="1"/>
     </row>
-    <row r="97" spans="1:100">
+    <row r="97" spans="1:102">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -11393,8 +11642,10 @@
       <c r="CT97" s="1"/>
       <c r="CU97" s="1"/>
       <c r="CV97" s="1"/>
+      <c r="CW97" s="1"/>
+      <c r="CX97" s="1"/>
     </row>
-    <row r="98" spans="1:100">
+    <row r="98" spans="1:102">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -11495,8 +11746,10 @@
       <c r="CT98" s="1"/>
       <c r="CU98" s="1"/>
       <c r="CV98" s="1"/>
+      <c r="CW98" s="1"/>
+      <c r="CX98" s="1"/>
     </row>
-    <row r="99" spans="1:100">
+    <row r="99" spans="1:102">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -11597,8 +11850,10 @@
       <c r="CT99" s="1"/>
       <c r="CU99" s="1"/>
       <c r="CV99" s="1"/>
+      <c r="CW99" s="1"/>
+      <c r="CX99" s="1"/>
     </row>
-    <row r="100" spans="1:100">
+    <row r="100" spans="1:102">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -11699,8 +11954,10 @@
       <c r="CT100" s="1"/>
       <c r="CU100" s="1"/>
       <c r="CV100" s="1"/>
+      <c r="CW100" s="1"/>
+      <c r="CX100" s="1"/>
     </row>
-    <row r="101" spans="1:100">
+    <row r="101" spans="1:102">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -11801,8 +12058,10 @@
       <c r="CT101" s="1"/>
       <c r="CU101" s="1"/>
       <c r="CV101" s="1"/>
+      <c r="CW101" s="1"/>
+      <c r="CX101" s="1"/>
     </row>
-    <row r="102" spans="1:100">
+    <row r="102" spans="1:102">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -11903,8 +12162,10 @@
       <c r="CT102" s="1"/>
       <c r="CU102" s="1"/>
       <c r="CV102" s="1"/>
+      <c r="CW102" s="1"/>
+      <c r="CX102" s="1"/>
     </row>
-    <row r="103" spans="1:100">
+    <row r="103" spans="1:102">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -12005,8 +12266,10 @@
       <c r="CT103" s="1"/>
       <c r="CU103" s="1"/>
       <c r="CV103" s="1"/>
+      <c r="CW103" s="1"/>
+      <c r="CX103" s="1"/>
     </row>
-    <row r="104" spans="1:100">
+    <row r="104" spans="1:102">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -12107,8 +12370,10 @@
       <c r="CT104" s="1"/>
       <c r="CU104" s="1"/>
       <c r="CV104" s="1"/>
+      <c r="CW104" s="1"/>
+      <c r="CX104" s="1"/>
     </row>
-    <row r="105" spans="1:100">
+    <row r="105" spans="1:102">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -12209,8 +12474,10 @@
       <c r="CT105" s="1"/>
       <c r="CU105" s="1"/>
       <c r="CV105" s="1"/>
+      <c r="CW105" s="1"/>
+      <c r="CX105" s="1"/>
     </row>
-    <row r="106" spans="1:100">
+    <row r="106" spans="1:102">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -12311,8 +12578,10 @@
       <c r="CT106" s="1"/>
       <c r="CU106" s="1"/>
       <c r="CV106" s="1"/>
+      <c r="CW106" s="1"/>
+      <c r="CX106" s="1"/>
     </row>
-    <row r="107" spans="1:100">
+    <row r="107" spans="1:102">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -12413,8 +12682,10 @@
       <c r="CT107" s="1"/>
       <c r="CU107" s="1"/>
       <c r="CV107" s="1"/>
+      <c r="CW107" s="1"/>
+      <c r="CX107" s="1"/>
     </row>
-    <row r="108" spans="1:100">
+    <row r="108" spans="1:102">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -12515,8 +12786,10 @@
       <c r="CT108" s="1"/>
       <c r="CU108" s="1"/>
       <c r="CV108" s="1"/>
+      <c r="CW108" s="1"/>
+      <c r="CX108" s="1"/>
     </row>
-    <row r="109" spans="1:100">
+    <row r="109" spans="1:102">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -12617,8 +12890,10 @@
       <c r="CT109" s="1"/>
       <c r="CU109" s="1"/>
       <c r="CV109" s="1"/>
+      <c r="CW109" s="1"/>
+      <c r="CX109" s="1"/>
     </row>
-    <row r="110" spans="1:100">
+    <row r="110" spans="1:102">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -12719,8 +12994,10 @@
       <c r="CT110" s="1"/>
       <c r="CU110" s="1"/>
       <c r="CV110" s="1"/>
+      <c r="CW110" s="1"/>
+      <c r="CX110" s="1"/>
     </row>
-    <row r="111" spans="1:100">
+    <row r="111" spans="1:102">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -12821,8 +13098,10 @@
       <c r="CT111" s="1"/>
       <c r="CU111" s="1"/>
       <c r="CV111" s="1"/>
+      <c r="CW111" s="1"/>
+      <c r="CX111" s="1"/>
     </row>
-    <row r="112" spans="1:100">
+    <row r="112" spans="1:102">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -12923,8 +13202,10 @@
       <c r="CT112" s="1"/>
       <c r="CU112" s="1"/>
       <c r="CV112" s="1"/>
+      <c r="CW112" s="1"/>
+      <c r="CX112" s="1"/>
     </row>
-    <row r="113" spans="1:100">
+    <row r="113" spans="1:102">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -13025,8 +13306,10 @@
       <c r="CT113" s="1"/>
       <c r="CU113" s="1"/>
       <c r="CV113" s="1"/>
+      <c r="CW113" s="1"/>
+      <c r="CX113" s="1"/>
     </row>
-    <row r="114" spans="1:100">
+    <row r="114" spans="1:102">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -13127,8 +13410,10 @@
       <c r="CT114" s="1"/>
       <c r="CU114" s="1"/>
       <c r="CV114" s="1"/>
+      <c r="CW114" s="1"/>
+      <c r="CX114" s="1"/>
     </row>
-    <row r="115" spans="1:100">
+    <row r="115" spans="1:102">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -13229,8 +13514,10 @@
       <c r="CT115" s="1"/>
       <c r="CU115" s="1"/>
       <c r="CV115" s="1"/>
+      <c r="CW115" s="1"/>
+      <c r="CX115" s="1"/>
     </row>
-    <row r="116" spans="1:100">
+    <row r="116" spans="1:102">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -13331,8 +13618,10 @@
       <c r="CT116" s="1"/>
       <c r="CU116" s="1"/>
       <c r="CV116" s="1"/>
+      <c r="CW116" s="1"/>
+      <c r="CX116" s="1"/>
     </row>
-    <row r="117" spans="1:100">
+    <row r="117" spans="1:102">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -13433,8 +13722,10 @@
       <c r="CT117" s="1"/>
       <c r="CU117" s="1"/>
       <c r="CV117" s="1"/>
+      <c r="CW117" s="1"/>
+      <c r="CX117" s="1"/>
     </row>
-    <row r="118" spans="1:100">
+    <row r="118" spans="1:102">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -13535,8 +13826,10 @@
       <c r="CT118" s="1"/>
       <c r="CU118" s="1"/>
       <c r="CV118" s="1"/>
+      <c r="CW118" s="1"/>
+      <c r="CX118" s="1"/>
     </row>
-    <row r="119" spans="1:100">
+    <row r="119" spans="1:102">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -13637,8 +13930,10 @@
       <c r="CT119" s="1"/>
       <c r="CU119" s="1"/>
       <c r="CV119" s="1"/>
+      <c r="CW119" s="1"/>
+      <c r="CX119" s="1"/>
     </row>
-    <row r="120" spans="1:100">
+    <row r="120" spans="1:102">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -13739,8 +14034,10 @@
       <c r="CT120" s="1"/>
       <c r="CU120" s="1"/>
       <c r="CV120" s="1"/>
+      <c r="CW120" s="1"/>
+      <c r="CX120" s="1"/>
     </row>
-    <row r="121" spans="1:100">
+    <row r="121" spans="1:102">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -13841,8 +14138,10 @@
       <c r="CT121" s="1"/>
       <c r="CU121" s="1"/>
       <c r="CV121" s="1"/>
+      <c r="CW121" s="1"/>
+      <c r="CX121" s="1"/>
     </row>
-    <row r="122" spans="1:100">
+    <row r="122" spans="1:102">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -13943,8 +14242,10 @@
       <c r="CT122" s="1"/>
       <c r="CU122" s="1"/>
       <c r="CV122" s="1"/>
+      <c r="CW122" s="1"/>
+      <c r="CX122" s="1"/>
     </row>
-    <row r="123" spans="1:100">
+    <row r="123" spans="1:102">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -14045,8 +14346,10 @@
       <c r="CT123" s="1"/>
       <c r="CU123" s="1"/>
       <c r="CV123" s="1"/>
+      <c r="CW123" s="1"/>
+      <c r="CX123" s="1"/>
     </row>
-    <row r="124" spans="1:100">
+    <row r="124" spans="1:102">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -14147,8 +14450,10 @@
       <c r="CT124" s="1"/>
       <c r="CU124" s="1"/>
       <c r="CV124" s="1"/>
+      <c r="CW124" s="1"/>
+      <c r="CX124" s="1"/>
     </row>
-    <row r="125" spans="1:100">
+    <row r="125" spans="1:102">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -14249,8 +14554,10 @@
       <c r="CT125" s="1"/>
       <c r="CU125" s="1"/>
       <c r="CV125" s="1"/>
+      <c r="CW125" s="1"/>
+      <c r="CX125" s="1"/>
     </row>
-    <row r="126" spans="1:100">
+    <row r="126" spans="1:102">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -14351,8 +14658,10 @@
       <c r="CT126" s="1"/>
       <c r="CU126" s="1"/>
       <c r="CV126" s="1"/>
+      <c r="CW126" s="1"/>
+      <c r="CX126" s="1"/>
     </row>
-    <row r="127" spans="1:100">
+    <row r="127" spans="1:102">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -14453,8 +14762,10 @@
       <c r="CT127" s="1"/>
       <c r="CU127" s="1"/>
       <c r="CV127" s="1"/>
+      <c r="CW127" s="1"/>
+      <c r="CX127" s="1"/>
     </row>
-    <row r="128" spans="1:100">
+    <row r="128" spans="1:102">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -14555,8 +14866,10 @@
       <c r="CT128" s="1"/>
       <c r="CU128" s="1"/>
       <c r="CV128" s="1"/>
+      <c r="CW128" s="1"/>
+      <c r="CX128" s="1"/>
     </row>
-    <row r="129" spans="1:100">
+    <row r="129" spans="1:102">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -14657,8 +14970,10 @@
       <c r="CT129" s="1"/>
       <c r="CU129" s="1"/>
       <c r="CV129" s="1"/>
+      <c r="CW129" s="1"/>
+      <c r="CX129" s="1"/>
     </row>
-    <row r="130" spans="1:100">
+    <row r="130" spans="1:102">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -14759,8 +15074,10 @@
       <c r="CT130" s="1"/>
       <c r="CU130" s="1"/>
       <c r="CV130" s="1"/>
+      <c r="CW130" s="1"/>
+      <c r="CX130" s="1"/>
     </row>
-    <row r="131" spans="1:100">
+    <row r="131" spans="1:102">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -14861,8 +15178,10 @@
       <c r="CT131" s="1"/>
       <c r="CU131" s="1"/>
       <c r="CV131" s="1"/>
+      <c r="CW131" s="1"/>
+      <c r="CX131" s="1"/>
     </row>
-    <row r="132" spans="1:100">
+    <row r="132" spans="1:102">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -14963,8 +15282,10 @@
       <c r="CT132" s="1"/>
       <c r="CU132" s="1"/>
       <c r="CV132" s="1"/>
+      <c r="CW132" s="1"/>
+      <c r="CX132" s="1"/>
     </row>
-    <row r="133" spans="1:100">
+    <row r="133" spans="1:102">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -15065,8 +15386,10 @@
       <c r="CT133" s="1"/>
       <c r="CU133" s="1"/>
       <c r="CV133" s="1"/>
+      <c r="CW133" s="1"/>
+      <c r="CX133" s="1"/>
     </row>
-    <row r="134" spans="1:100">
+    <row r="134" spans="1:102">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -15167,8 +15490,10 @@
       <c r="CT134" s="1"/>
       <c r="CU134" s="1"/>
       <c r="CV134" s="1"/>
+      <c r="CW134" s="1"/>
+      <c r="CX134" s="1"/>
     </row>
-    <row r="135" spans="1:100">
+    <row r="135" spans="1:102">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -15269,8 +15594,10 @@
       <c r="CT135" s="1"/>
       <c r="CU135" s="1"/>
       <c r="CV135" s="1"/>
+      <c r="CW135" s="1"/>
+      <c r="CX135" s="1"/>
     </row>
-    <row r="136" spans="1:100">
+    <row r="136" spans="1:102">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -15371,8 +15698,10 @@
       <c r="CT136" s="1"/>
       <c r="CU136" s="1"/>
       <c r="CV136" s="1"/>
+      <c r="CW136" s="1"/>
+      <c r="CX136" s="1"/>
     </row>
-    <row r="137" spans="1:100">
+    <row r="137" spans="1:102">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -15473,8 +15802,10 @@
       <c r="CT137" s="1"/>
       <c r="CU137" s="1"/>
       <c r="CV137" s="1"/>
+      <c r="CW137" s="1"/>
+      <c r="CX137" s="1"/>
     </row>
-    <row r="138" spans="1:100">
+    <row r="138" spans="1:102">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -15575,8 +15906,10 @@
       <c r="CT138" s="1"/>
       <c r="CU138" s="1"/>
       <c r="CV138" s="1"/>
+      <c r="CW138" s="1"/>
+      <c r="CX138" s="1"/>
     </row>
-    <row r="139" spans="1:100">
+    <row r="139" spans="1:102">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -15677,8 +16010,10 @@
       <c r="CT139" s="1"/>
       <c r="CU139" s="1"/>
       <c r="CV139" s="1"/>
+      <c r="CW139" s="1"/>
+      <c r="CX139" s="1"/>
     </row>
-    <row r="140" spans="1:100">
+    <row r="140" spans="1:102">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -15779,8 +16114,10 @@
       <c r="CT140" s="1"/>
       <c r="CU140" s="1"/>
       <c r="CV140" s="1"/>
+      <c r="CW140" s="1"/>
+      <c r="CX140" s="1"/>
     </row>
-    <row r="141" spans="1:100">
+    <row r="141" spans="1:102">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -15881,8 +16218,10 @@
       <c r="CT141" s="1"/>
       <c r="CU141" s="1"/>
       <c r="CV141" s="1"/>
+      <c r="CW141" s="1"/>
+      <c r="CX141" s="1"/>
     </row>
-    <row r="142" spans="1:100">
+    <row r="142" spans="1:102">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -15983,8 +16322,10 @@
       <c r="CT142" s="1"/>
       <c r="CU142" s="1"/>
       <c r="CV142" s="1"/>
+      <c r="CW142" s="1"/>
+      <c r="CX142" s="1"/>
     </row>
-    <row r="143" spans="1:100">
+    <row r="143" spans="1:102">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -16085,8 +16426,10 @@
       <c r="CT143" s="1"/>
       <c r="CU143" s="1"/>
       <c r="CV143" s="1"/>
+      <c r="CW143" s="1"/>
+      <c r="CX143" s="1"/>
     </row>
-    <row r="144" spans="1:100">
+    <row r="144" spans="1:102">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -16187,8 +16530,10 @@
       <c r="CT144" s="1"/>
       <c r="CU144" s="1"/>
       <c r="CV144" s="1"/>
+      <c r="CW144" s="1"/>
+      <c r="CX144" s="1"/>
     </row>
-    <row r="145" spans="1:100">
+    <row r="145" spans="1:102">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -16289,8 +16634,10 @@
       <c r="CT145" s="1"/>
       <c r="CU145" s="1"/>
       <c r="CV145" s="1"/>
+      <c r="CW145" s="1"/>
+      <c r="CX145" s="1"/>
     </row>
-    <row r="146" spans="1:100">
+    <row r="146" spans="1:102">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -16391,8 +16738,10 @@
       <c r="CT146" s="1"/>
       <c r="CU146" s="1"/>
       <c r="CV146" s="1"/>
+      <c r="CW146" s="1"/>
+      <c r="CX146" s="1"/>
     </row>
-    <row r="147" spans="1:100">
+    <row r="147" spans="1:102">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -16493,8 +16842,10 @@
       <c r="CT147" s="1"/>
       <c r="CU147" s="1"/>
       <c r="CV147" s="1"/>
+      <c r="CW147" s="1"/>
+      <c r="CX147" s="1"/>
     </row>
-    <row r="148" spans="1:100">
+    <row r="148" spans="1:102">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -16595,8 +16946,10 @@
       <c r="CT148" s="1"/>
       <c r="CU148" s="1"/>
       <c r="CV148" s="1"/>
+      <c r="CW148" s="1"/>
+      <c r="CX148" s="1"/>
     </row>
-    <row r="149" spans="1:100">
+    <row r="149" spans="1:102">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -16697,8 +17050,10 @@
       <c r="CT149" s="1"/>
       <c r="CU149" s="1"/>
       <c r="CV149" s="1"/>
+      <c r="CW149" s="1"/>
+      <c r="CX149" s="1"/>
     </row>
-    <row r="150" spans="1:100">
+    <row r="150" spans="1:102">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -16799,8 +17154,10 @@
       <c r="CT150" s="1"/>
       <c r="CU150" s="1"/>
       <c r="CV150" s="1"/>
+      <c r="CW150" s="1"/>
+      <c r="CX150" s="1"/>
     </row>
-    <row r="151" spans="1:100">
+    <row r="151" spans="1:102">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -16901,8 +17258,10 @@
       <c r="CT151" s="1"/>
       <c r="CU151" s="1"/>
       <c r="CV151" s="1"/>
+      <c r="CW151" s="1"/>
+      <c r="CX151" s="1"/>
     </row>
-    <row r="152" spans="1:100">
+    <row r="152" spans="1:102">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -17003,8 +17362,10 @@
       <c r="CT152" s="1"/>
       <c r="CU152" s="1"/>
       <c r="CV152" s="1"/>
+      <c r="CW152" s="1"/>
+      <c r="CX152" s="1"/>
     </row>
-    <row r="153" spans="1:100">
+    <row r="153" spans="1:102">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -17105,8 +17466,10 @@
       <c r="CT153" s="1"/>
       <c r="CU153" s="1"/>
       <c r="CV153" s="1"/>
+      <c r="CW153" s="1"/>
+      <c r="CX153" s="1"/>
     </row>
-    <row r="154" spans="1:100">
+    <row r="154" spans="1:102">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -17207,8 +17570,10 @@
       <c r="CT154" s="1"/>
       <c r="CU154" s="1"/>
       <c r="CV154" s="1"/>
+      <c r="CW154" s="1"/>
+      <c r="CX154" s="1"/>
     </row>
-    <row r="155" spans="1:100">
+    <row r="155" spans="1:102">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -17309,8 +17674,10 @@
       <c r="CT155" s="1"/>
       <c r="CU155" s="1"/>
       <c r="CV155" s="1"/>
+      <c r="CW155" s="1"/>
+      <c r="CX155" s="1"/>
     </row>
-    <row r="156" spans="1:100">
+    <row r="156" spans="1:102">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -17411,8 +17778,10 @@
       <c r="CT156" s="1"/>
       <c r="CU156" s="1"/>
       <c r="CV156" s="1"/>
+      <c r="CW156" s="1"/>
+      <c r="CX156" s="1"/>
     </row>
-    <row r="157" spans="1:100">
+    <row r="157" spans="1:102">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -17513,8 +17882,10 @@
       <c r="CT157" s="1"/>
       <c r="CU157" s="1"/>
       <c r="CV157" s="1"/>
+      <c r="CW157" s="1"/>
+      <c r="CX157" s="1"/>
     </row>
-    <row r="158" spans="1:100">
+    <row r="158" spans="1:102">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -17615,8 +17986,10 @@
       <c r="CT158" s="1"/>
       <c r="CU158" s="1"/>
       <c r="CV158" s="1"/>
+      <c r="CW158" s="1"/>
+      <c r="CX158" s="1"/>
     </row>
-    <row r="159" spans="1:100">
+    <row r="159" spans="1:102">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -17717,8 +18090,10 @@
       <c r="CT159" s="1"/>
       <c r="CU159" s="1"/>
       <c r="CV159" s="1"/>
+      <c r="CW159" s="1"/>
+      <c r="CX159" s="1"/>
     </row>
-    <row r="160" spans="1:100">
+    <row r="160" spans="1:102">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -17819,8 +18194,10 @@
       <c r="CT160" s="1"/>
       <c r="CU160" s="1"/>
       <c r="CV160" s="1"/>
+      <c r="CW160" s="1"/>
+      <c r="CX160" s="1"/>
     </row>
-    <row r="161" spans="1:101">
+    <row r="161" spans="1:103">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -17921,8 +18298,10 @@
       <c r="CT161" s="1"/>
       <c r="CU161" s="1"/>
       <c r="CV161" s="1"/>
+      <c r="CW161" s="1"/>
+      <c r="CX161" s="1"/>
     </row>
-    <row r="162" spans="1:101">
+    <row r="162" spans="1:103">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -18023,8 +18402,10 @@
       <c r="CT162" s="1"/>
       <c r="CU162" s="1"/>
       <c r="CV162" s="1"/>
+      <c r="CW162" s="1"/>
+      <c r="CX162" s="1"/>
     </row>
-    <row r="163" spans="1:101">
+    <row r="163" spans="1:103">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -18125,8 +18506,10 @@
       <c r="CT163" s="1"/>
       <c r="CU163" s="1"/>
       <c r="CV163" s="1"/>
+      <c r="CW163" s="1"/>
+      <c r="CX163" s="1"/>
     </row>
-    <row r="164" spans="1:101">
+    <row r="164" spans="1:103">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -18227,8 +18610,10 @@
       <c r="CT164" s="1"/>
       <c r="CU164" s="1"/>
       <c r="CV164" s="1"/>
+      <c r="CW164" s="1"/>
+      <c r="CX164" s="1"/>
     </row>
-    <row r="165" spans="1:101">
+    <row r="165" spans="1:103">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -18329,8 +18714,10 @@
       <c r="CT165" s="1"/>
       <c r="CU165" s="1"/>
       <c r="CV165" s="1"/>
+      <c r="CW165" s="1"/>
+      <c r="CX165" s="1"/>
     </row>
-    <row r="166" spans="1:101">
+    <row r="166" spans="1:103">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -18431,8 +18818,10 @@
       <c r="CT166" s="1"/>
       <c r="CU166" s="1"/>
       <c r="CV166" s="1"/>
+      <c r="CW166" s="1"/>
+      <c r="CX166" s="1"/>
     </row>
-    <row r="167" spans="1:101">
+    <row r="167" spans="1:103">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -18533,8 +18922,10 @@
       <c r="CT167" s="1"/>
       <c r="CU167" s="1"/>
       <c r="CV167" s="1"/>
+      <c r="CW167" s="1"/>
+      <c r="CX167" s="1"/>
     </row>
-    <row r="168" spans="1:101">
+    <row r="168" spans="1:103">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -18635,8 +19026,10 @@
       <c r="CT168" s="1"/>
       <c r="CU168" s="1"/>
       <c r="CV168" s="1"/>
+      <c r="CW168" s="1"/>
+      <c r="CX168" s="1"/>
     </row>
-    <row r="169" spans="1:101">
+    <row r="169" spans="1:103">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -18737,8 +19130,10 @@
       <c r="CT169" s="1"/>
       <c r="CU169" s="1"/>
       <c r="CV169" s="1"/>
+      <c r="CW169" s="1"/>
+      <c r="CX169" s="1"/>
     </row>
-    <row r="170" spans="1:101">
+    <row r="170" spans="1:103">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -18839,8 +19234,10 @@
       <c r="CT170" s="1"/>
       <c r="CU170" s="1"/>
       <c r="CV170" s="1"/>
+      <c r="CW170" s="1"/>
+      <c r="CX170" s="1"/>
     </row>
-    <row r="171" spans="1:101">
+    <row r="171" spans="1:103">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -18941,8 +19338,10 @@
       <c r="CT171" s="1"/>
       <c r="CU171" s="1"/>
       <c r="CV171" s="1"/>
+      <c r="CW171" s="1"/>
+      <c r="CX171" s="1"/>
     </row>
-    <row r="172" spans="1:101">
+    <row r="172" spans="1:103">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -19044,8 +19443,10 @@
       <c r="CU172" s="1"/>
       <c r="CV172" s="1"/>
       <c r="CW172" s="1"/>
+      <c r="CX172" s="1"/>
+      <c r="CY172" s="1"/>
     </row>
-    <row r="173" spans="1:101">
+    <row r="173" spans="1:103">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -19146,8 +19547,10 @@
       <c r="CT173" s="1"/>
       <c r="CU173" s="1"/>
       <c r="CV173" s="1"/>
+      <c r="CW173" s="1"/>
+      <c r="CX173" s="1"/>
     </row>
-    <row r="174" spans="1:101">
+    <row r="174" spans="1:103">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -19248,8 +19651,10 @@
       <c r="CT174" s="1"/>
       <c r="CU174" s="1"/>
       <c r="CV174" s="1"/>
+      <c r="CW174" s="1"/>
+      <c r="CX174" s="1"/>
     </row>
-    <row r="175" spans="1:101">
+    <row r="175" spans="1:103">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -19350,8 +19755,10 @@
       <c r="CT175" s="1"/>
       <c r="CU175" s="1"/>
       <c r="CV175" s="1"/>
+      <c r="CW175" s="1"/>
+      <c r="CX175" s="1"/>
     </row>
-    <row r="176" spans="1:101">
+    <row r="176" spans="1:103">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -19452,8 +19859,10 @@
       <c r="CT176" s="1"/>
       <c r="CU176" s="1"/>
       <c r="CV176" s="1"/>
+      <c r="CW176" s="1"/>
+      <c r="CX176" s="1"/>
     </row>
-    <row r="177" spans="1:100">
+    <row r="177" spans="1:102">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -19554,8 +19963,10 @@
       <c r="CT177" s="1"/>
       <c r="CU177" s="1"/>
       <c r="CV177" s="1"/>
+      <c r="CW177" s="1"/>
+      <c r="CX177" s="1"/>
     </row>
-    <row r="178" spans="1:100">
+    <row r="178" spans="1:102">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -19656,8 +20067,10 @@
       <c r="CT178" s="1"/>
       <c r="CU178" s="1"/>
       <c r="CV178" s="1"/>
+      <c r="CW178" s="1"/>
+      <c r="CX178" s="1"/>
     </row>
-    <row r="179" spans="1:100">
+    <row r="179" spans="1:102">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -19758,8 +20171,10 @@
       <c r="CT179" s="1"/>
       <c r="CU179" s="1"/>
       <c r="CV179" s="1"/>
+      <c r="CW179" s="1"/>
+      <c r="CX179" s="1"/>
     </row>
-    <row r="180" spans="1:100">
+    <row r="180" spans="1:102">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -19860,8 +20275,10 @@
       <c r="CT180" s="1"/>
       <c r="CU180" s="1"/>
       <c r="CV180" s="1"/>
+      <c r="CW180" s="1"/>
+      <c r="CX180" s="1"/>
     </row>
-    <row r="181" spans="1:100">
+    <row r="181" spans="1:102">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -19962,8 +20379,10 @@
       <c r="CT181" s="1"/>
       <c r="CU181" s="1"/>
       <c r="CV181" s="1"/>
+      <c r="CW181" s="1"/>
+      <c r="CX181" s="1"/>
     </row>
-    <row r="182" spans="1:100">
+    <row r="182" spans="1:102">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -20064,8 +20483,10 @@
       <c r="CT182" s="1"/>
       <c r="CU182" s="1"/>
       <c r="CV182" s="1"/>
+      <c r="CW182" s="1"/>
+      <c r="CX182" s="1"/>
     </row>
-    <row r="183" spans="1:100">
+    <row r="183" spans="1:102">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -20166,8 +20587,10 @@
       <c r="CT183" s="1"/>
       <c r="CU183" s="1"/>
       <c r="CV183" s="1"/>
+      <c r="CW183" s="1"/>
+      <c r="CX183" s="1"/>
     </row>
-    <row r="184" spans="1:100">
+    <row r="184" spans="1:102">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -20268,8 +20691,10 @@
       <c r="CT184" s="1"/>
       <c r="CU184" s="1"/>
       <c r="CV184" s="1"/>
+      <c r="CW184" s="1"/>
+      <c r="CX184" s="1"/>
     </row>
-    <row r="185" spans="1:100">
+    <row r="185" spans="1:102">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -20370,8 +20795,10 @@
       <c r="CT185" s="1"/>
       <c r="CU185" s="1"/>
       <c r="CV185" s="1"/>
+      <c r="CW185" s="1"/>
+      <c r="CX185" s="1"/>
     </row>
-    <row r="186" spans="1:100">
+    <row r="186" spans="1:102">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -20472,8 +20899,10 @@
       <c r="CT186" s="1"/>
       <c r="CU186" s="1"/>
       <c r="CV186" s="1"/>
+      <c r="CW186" s="1"/>
+      <c r="CX186" s="1"/>
     </row>
-    <row r="187" spans="1:100">
+    <row r="187" spans="1:102">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -20574,8 +21003,10 @@
       <c r="CT187" s="1"/>
       <c r="CU187" s="1"/>
       <c r="CV187" s="1"/>
+      <c r="CW187" s="1"/>
+      <c r="CX187" s="1"/>
     </row>
-    <row r="188" spans="1:100">
+    <row r="188" spans="1:102">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -20676,8 +21107,10 @@
       <c r="CT188" s="1"/>
       <c r="CU188" s="1"/>
       <c r="CV188" s="1"/>
+      <c r="CW188" s="1"/>
+      <c r="CX188" s="1"/>
     </row>
-    <row r="189" spans="1:100">
+    <row r="189" spans="1:102">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -20778,8 +21211,10 @@
       <c r="CT189" s="1"/>
       <c r="CU189" s="1"/>
       <c r="CV189" s="1"/>
+      <c r="CW189" s="1"/>
+      <c r="CX189" s="1"/>
     </row>
-    <row r="190" spans="1:100">
+    <row r="190" spans="1:102">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -20880,8 +21315,10 @@
       <c r="CT190" s="1"/>
       <c r="CU190" s="1"/>
       <c r="CV190" s="1"/>
+      <c r="CW190" s="1"/>
+      <c r="CX190" s="1"/>
     </row>
-    <row r="191" spans="1:100">
+    <row r="191" spans="1:102">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -20982,8 +21419,10 @@
       <c r="CT191" s="1"/>
       <c r="CU191" s="1"/>
       <c r="CV191" s="1"/>
+      <c r="CW191" s="1"/>
+      <c r="CX191" s="1"/>
     </row>
-    <row r="192" spans="1:100">
+    <row r="192" spans="1:102">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -21084,8 +21523,10 @@
       <c r="CT192" s="1"/>
       <c r="CU192" s="1"/>
       <c r="CV192" s="1"/>
+      <c r="CW192" s="1"/>
+      <c r="CX192" s="1"/>
     </row>
-    <row r="193" spans="1:101">
+    <row r="193" spans="1:103">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -21186,8 +21627,10 @@
       <c r="CT193" s="1"/>
       <c r="CU193" s="1"/>
       <c r="CV193" s="1"/>
+      <c r="CW193" s="1"/>
+      <c r="CX193" s="1"/>
     </row>
-    <row r="194" spans="1:101">
+    <row r="194" spans="1:103">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -21288,8 +21731,10 @@
       <c r="CT194" s="1"/>
       <c r="CU194" s="1"/>
       <c r="CV194" s="1"/>
+      <c r="CW194" s="1"/>
+      <c r="CX194" s="1"/>
     </row>
-    <row r="195" spans="1:101">
+    <row r="195" spans="1:103">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -21391,17 +21836,19 @@
       <c r="CU195" s="1"/>
       <c r="CV195" s="1"/>
       <c r="CW195" s="1"/>
+      <c r="CX195" s="1"/>
+      <c r="CY195" s="1"/>
     </row>
-    <row r="196" spans="1:101">
-      <c r="CV196" s="1"/>
+    <row r="196" spans="1:103">
+      <c r="CX196" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="L4:P9"/>
-    <mergeCell ref="L15:P16"/>
+    <mergeCell ref="N4:R9"/>
+    <mergeCell ref="N15:R16"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="D16:G16"/>
   </mergeCells>

--- a/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter3/dataConvertTools.xlsx
+++ b/developWorkspace/CodeLibrary/CodeGenerator/addinCodeConverter3/dataConvertTools.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\CodeLibrary\CodeGenerator\addinCodeConverter3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xujingjiang\Source\Repos\developSupportToolls\developWorkspace\bin\Debug\addins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D1821B-EA68-4909-B842-6D14CD0866B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA3E35-FE49-4CE0-A68C-AF7C4381F5E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
   <si>
     <t>Setting{}</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>DELETE:delete</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>TOKEN</t>
@@ -689,32 +686,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <r>
-      <t>y</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.25"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>es</t>
-    </r>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>K</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>Key</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -728,6 +699,22 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>isK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>isS</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>isW</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1209,6 +1196,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1224,9 +1214,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1510,7 +1497,7 @@
   <dimension ref="A1:CY196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -1541,12 +1528,12 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="75" t="s">
-        <v>89</v>
+      <c r="D1" s="78" t="s">
+        <v>88</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1563,13 +1550,13 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="X1" s="68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Z1" s="69"/>
       <c r="AA1" s="70"/>
@@ -1651,7 +1638,7 @@
     </row>
     <row r="2" spans="1:102" s="42" customFormat="1" ht="21">
       <c r="C2" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" s="44"/>
       <c r="E2" s="45"/>
@@ -1662,7 +1649,7 @@
         <v>12</v>
       </c>
       <c r="Y2" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Z2" s="51"/>
       <c r="AA2" s="63"/>
@@ -1673,11 +1660,11 @@
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="75" t="s">
-        <v>84</v>
+      <c r="D3" s="78" t="s">
+        <v>83</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="39"/>
       <c r="H3" s="39"/>
       <c r="I3" s="1"/>
@@ -1686,13 +1673,13 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="W3" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="X3" s="26" t="s">
-        <v>94</v>
-      </c>
       <c r="Y3" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z3" s="27"/>
       <c r="AA3" s="64"/>
@@ -1710,24 +1697,24 @@
       <c r="G4" s="53"/>
       <c r="H4" s="54"/>
       <c r="I4" s="55"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
       <c r="L4" s="51"/>
-      <c r="N4" s="76" t="s">
-        <v>85</v>
+      <c r="N4" s="79" t="s">
+        <v>84</v>
       </c>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
       <c r="W4" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="X4" s="27" t="s">
-        <v>96</v>
-      </c>
       <c r="Y4" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Z4" s="51"/>
       <c r="AA4" s="63"/>
@@ -1744,24 +1731,24 @@
       <c r="G5" s="56"/>
       <c r="H5" s="52"/>
       <c r="I5" s="57"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
       <c r="L5" s="26"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X5" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y5" s="51"/>
       <c r="Z5" s="26"/>
@@ -1854,15 +1841,15 @@
       <c r="G6" s="56"/>
       <c r="H6" s="52"/>
       <c r="I6" s="57"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
       <c r="L6" s="26"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1960,15 +1947,15 @@
       <c r="G7" s="56"/>
       <c r="H7" s="52"/>
       <c r="I7" s="57"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
       <c r="L7" s="26"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
@@ -2066,15 +2053,15 @@
       <c r="G8" s="56"/>
       <c r="H8" s="52"/>
       <c r="I8" s="57"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
       <c r="L8" s="26"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
@@ -2172,15 +2159,15 @@
       <c r="G9" s="58"/>
       <c r="H9" s="59"/>
       <c r="I9" s="60"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
       <c r="L9" s="26"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
@@ -2375,10 +2362,10 @@
     <row r="11" spans="1:102" ht="18.75" customHeight="1">
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="1"/>
@@ -2796,12 +2783,12 @@
     <row r="15" spans="1:102" ht="20.25" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="39"/>
-      <c r="C15" s="74" t="s">
-        <v>86</v>
+      <c r="C15" s="77" t="s">
+        <v>85</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2809,13 +2796,13 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="74" t="s">
-        <v>87</v>
+      <c r="N15" s="77" t="s">
+        <v>86</v>
       </c>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
@@ -2905,23 +2892,23 @@
       <c r="A16" s="1"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="77" t="s">
-        <v>88</v>
+      <c r="D16" s="80" t="s">
+        <v>87</v>
       </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
@@ -3018,13 +3005,13 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K17" s="39" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L17" s="39" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -3340,10 +3327,10 @@
       <c r="D20" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="26"/>
@@ -3659,10 +3646,10 @@
       <c r="A23" s="1"/>
       <c r="B23" s="24"/>
       <c r="C23" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" s="71" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="26"/>
@@ -3788,13 +3775,13 @@
         <v>30</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M24" s="35" t="s">
         <v>31</v>
@@ -3904,43 +3891,43 @@
       <c r="B25" s="24"/>
       <c r="C25" s="3"/>
       <c r="D25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="M25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J25" s="80" t="s">
-        <v>113</v>
+      <c r="N25" s="75" t="s">
+        <v>108</v>
       </c>
-      <c r="K25" s="80" t="s">
-        <v>113</v>
+      <c r="O25" s="75" t="s">
+        <v>108</v>
       </c>
-      <c r="L25" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="N25" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O25" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="33" t="s">
-        <v>37</v>
+      <c r="P25" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
@@ -4034,41 +4021,41 @@
       <c r="B26" s="24"/>
       <c r="C26" s="26"/>
       <c r="D26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="J26" s="6"/>
-      <c r="K26" s="80" t="s">
-        <v>113</v>
+      <c r="K26" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
-      <c r="N26" s="33" t="s">
-        <v>37</v>
+      <c r="N26" s="75" t="s">
+        <v>108</v>
       </c>
-      <c r="O26" s="33" t="s">
-        <v>37</v>
+      <c r="O26" s="75" t="s">
+        <v>108</v>
       </c>
-      <c r="P26" s="33" t="s">
-        <v>37</v>
+      <c r="P26" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="Q26" s="32"/>
-      <c r="R26" s="33" t="s">
-        <v>37</v>
+      <c r="R26" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -4160,33 +4147,33 @@
       <c r="B27" s="24"/>
       <c r="C27" s="26"/>
       <c r="D27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="80" t="s">
-        <v>113</v>
+      <c r="K27" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
-      <c r="N27" s="33" t="s">
-        <v>37</v>
+      <c r="N27" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="O27" s="33"/>
       <c r="P27" s="32"/>
@@ -4282,33 +4269,33 @@
       <c r="B28" s="24"/>
       <c r="C28" s="26"/>
       <c r="D28" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="14" t="s">
+      <c r="H28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="I28" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="J28" s="14"/>
-      <c r="K28" s="80" t="s">
-        <v>113</v>
+      <c r="K28" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="L28" s="14"/>
       <c r="M28" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
-      <c r="N28" s="33" t="s">
-        <v>37</v>
+      <c r="N28" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
@@ -4404,33 +4391,33 @@
       <c r="B29" s="24"/>
       <c r="C29" s="28"/>
       <c r="D29" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="F29" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="33" t="s">
+      <c r="G29" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="H29" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="I29" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I29" s="33" t="s">
-        <v>63</v>
-      </c>
       <c r="J29" s="33"/>
-      <c r="K29" s="80" t="s">
-        <v>113</v>
+      <c r="K29" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="L29" s="33"/>
       <c r="M29" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
-      <c r="N29" s="33" t="s">
-        <v>37</v>
+      <c r="N29" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="O29" s="32"/>
       <c r="P29" s="32"/>
@@ -4526,31 +4513,31 @@
       <c r="B30" s="24"/>
       <c r="C30" s="37"/>
       <c r="D30" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="F30" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="G30" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="H30" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="I30" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="33" t="s">
-        <v>69</v>
-      </c>
       <c r="J30" s="33"/>
-      <c r="K30" s="80" t="s">
-        <v>113</v>
+      <c r="K30" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="L30" s="33"/>
       <c r="M30" s="32"/>
-      <c r="N30" s="33" t="s">
-        <v>37</v>
+      <c r="N30" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
@@ -4646,24 +4633,24 @@
       <c r="B31" s="24"/>
       <c r="C31" s="26"/>
       <c r="D31" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="I31" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="I31" s="33" t="s">
-        <v>73</v>
-      </c>
       <c r="J31" s="33"/>
-      <c r="K31" s="80" t="s">
-        <v>113</v>
+      <c r="K31" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="L31" s="33"/>
       <c r="M31" s="32"/>
@@ -4762,24 +4749,24 @@
       <c r="B32" s="24"/>
       <c r="C32" s="26"/>
       <c r="D32" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="32"/>
       <c r="F32" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G32" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="I32" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I32" s="33" t="s">
-        <v>77</v>
-      </c>
       <c r="J32" s="33"/>
-      <c r="K32" s="80" t="s">
-        <v>113</v>
+      <c r="K32" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="L32" s="33"/>
       <c r="M32" s="32"/>
@@ -4878,24 +4865,24 @@
       <c r="B33" s="24"/>
       <c r="C33" s="26"/>
       <c r="D33" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E33" s="32"/>
       <c r="F33" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H33" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="33" t="s">
-        <v>80</v>
-      </c>
       <c r="J33" s="33"/>
-      <c r="K33" s="80" t="s">
-        <v>113</v>
+      <c r="K33" s="75" t="s">
+        <v>108</v>
       </c>
       <c r="L33" s="33"/>
       <c r="M33" s="32"/>
